--- a/tests/test1/d20/N, 0.0.xlsx
+++ b/tests/test1/d20/N, 0.0.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Точ</t>
+          <t>Успех</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.0005857000000020207</v>
+        <v>0.002089700000006189</v>
       </c>
     </row>
     <row r="3">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.002434999999998411</v>
+        <v>0.003896399999995026</v>
       </c>
     </row>
     <row r="4">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.0003189000000034525</v>
+        <v>0.0005890999999991209</v>
       </c>
     </row>
     <row r="5">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.0003288999999995212</v>
+        <v>0.0003384000000039578</v>
       </c>
     </row>
     <row r="6">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.0003157000000015842</v>
+        <v>0.0003869000000022993</v>
       </c>
     </row>
     <row r="7">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.0003159999999979846</v>
+        <v>0.0005446999999989544</v>
       </c>
     </row>
     <row r="8">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.0006360000000000809</v>
+        <v>0.0003803999999973939</v>
       </c>
     </row>
     <row r="9">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.0003427999999985332</v>
+        <v>0.0005486999999959608</v>
       </c>
     </row>
     <row r="10">
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.0006612999999973113</v>
+        <v>0.0003388000000015268</v>
       </c>
     </row>
     <row r="11">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.0003452999999993267</v>
+        <v>0.0005138000000002307</v>
       </c>
     </row>
     <row r="12">
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.0005427999999980671</v>
+        <v>0.00189860000000408</v>
       </c>
     </row>
     <row r="13">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.000572800000000484</v>
+        <v>0.0004850999999987948</v>
       </c>
     </row>
     <row r="14">
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.000599100000002295</v>
+        <v>0.0008363999999971838</v>
       </c>
     </row>
     <row r="15">
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.000492700000002344</v>
+        <v>0.0004300000000014848</v>
       </c>
     </row>
     <row r="16">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.0003458999999992329</v>
+        <v>0.0005071999999941568</v>
       </c>
     </row>
     <row r="17">
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.0003324999999989586</v>
+        <v>0.0003180000000000405</v>
       </c>
     </row>
     <row r="18">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.0003622999999990384</v>
+        <v>0.0003085999999967726</v>
       </c>
     </row>
     <row r="19">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.0005712000000031026</v>
+        <v>0.0004361000000017157</v>
       </c>
     </row>
     <row r="20">
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.0004899999999992133</v>
+        <v>0.0003317000000038206</v>
       </c>
     </row>
     <row r="21">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.0003499000000033448</v>
+        <v>0.0003005000000015912</v>
       </c>
     </row>
     <row r="22">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.000305300000000841</v>
+        <v>0.0005589000000014721</v>
       </c>
     </row>
     <row r="23">
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.0002999999999957481</v>
+        <v>0.0003644999999963261</v>
       </c>
     </row>
     <row r="24">
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.001026599999995881</v>
+        <v>0.000400599999998974</v>
       </c>
     </row>
     <row r="25">
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.0003176000000024715</v>
+        <v>0.0005183000000030802</v>
       </c>
     </row>
     <row r="26">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.0003212000000019088</v>
+        <v>0.0005025999999972441</v>
       </c>
     </row>
     <row r="27">
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.003082800000001384</v>
+        <v>0.0003305999999980713</v>
       </c>
     </row>
     <row r="28">
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.0005275000000040109</v>
+        <v>0.003200499999998385</v>
       </c>
     </row>
     <row r="29">
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.00103730000000013</v>
+        <v>0.0003334000000023707</v>
       </c>
     </row>
     <row r="30">
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.0004074000000002798</v>
+        <v>0.0003351000000009208</v>
       </c>
     </row>
     <row r="31">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.0003230999999956907</v>
+        <v>0.0003435999999936712</v>
       </c>
     </row>
     <row r="32">
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.0003055999999972414</v>
+        <v>0.0004957000000018752</v>
       </c>
     </row>
     <row r="33">
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.0003170000000025652</v>
+        <v>0.0003211000000007402</v>
       </c>
     </row>
     <row r="34">
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.0002920000000017353</v>
+        <v>0.0005844999999951028</v>
       </c>
     </row>
     <row r="35">
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.000313099999999622</v>
+        <v>0.0003063999999994849</v>
       </c>
     </row>
     <row r="36">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.0003117999999986409</v>
+        <v>0.0003235000000003652</v>
       </c>
     </row>
     <row r="37">
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.0002905999999995856</v>
+        <v>0.0005357000000003609</v>
       </c>
     </row>
     <row r="38">
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.0003027000000059843</v>
+        <v>0.0003124999999997158</v>
       </c>
     </row>
     <row r="39">
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.0003256000000035897</v>
+        <v>0.0003195999999974219</v>
       </c>
     </row>
     <row r="40">
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.0003194999999962533</v>
+        <v>0.0003470000000049822</v>
       </c>
     </row>
     <row r="41">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.0002992000000006101</v>
+        <v>0.0003393000000002644</v>
       </c>
     </row>
     <row r="42">
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.0003066000000018221</v>
+        <v>0.0003250000000036835</v>
       </c>
     </row>
     <row r="43">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.0003214000000042461</v>
+        <v>0.0003032999999987851</v>
       </c>
     </row>
     <row r="44">
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.0003038000000046281</v>
+        <v>0.0009571000000008212</v>
       </c>
     </row>
     <row r="45">
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.0003363000000007332</v>
+        <v>0.0003207000000031712</v>
       </c>
     </row>
     <row r="46">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.0003616999999991322</v>
+        <v>0.0002876000000000545</v>
       </c>
     </row>
     <row r="47">
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.0003240000000062082</v>
+        <v>0.0002874000000048227</v>
       </c>
     </row>
     <row r="48">
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.0002974999999949546</v>
+        <v>0.0003069999999993911</v>
       </c>
     </row>
     <row r="49">
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.0003163000000014904</v>
+        <v>0.0002898999999985108</v>
       </c>
     </row>
     <row r="50">
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.0003014999999990664</v>
+        <v>0.0002872000000024855</v>
       </c>
     </row>
     <row r="51">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.0002962000000010789</v>
+        <v>0.0003071999999946229</v>
       </c>
     </row>
     <row r="52">
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.0004514999999969405</v>
+        <v>0.0002878000000023917</v>
       </c>
     </row>
     <row r="53">
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.0003136999999995282</v>
+        <v>0.0002831999999983736</v>
       </c>
     </row>
     <row r="54">
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.0003059000000007472</v>
+        <v>0.000705899999999815</v>
       </c>
     </row>
     <row r="55">
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.000290899999995986</v>
+        <v>0.0002976000000032286</v>
       </c>
     </row>
     <row r="56">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.0003181000000012091</v>
+        <v>0.0003004000000004226</v>
       </c>
     </row>
     <row r="57">
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.0002932000000015478</v>
+        <v>0.0002881999999999607</v>
       </c>
     </row>
     <row r="58">
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.0003075999999992973</v>
+        <v>0.0003183999999976095</v>
       </c>
     </row>
     <row r="59">
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.0003223000000005527</v>
+        <v>0.0003047000000009348</v>
       </c>
     </row>
     <row r="60">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.0003112999999999033</v>
+        <v>0.0003047000000009348</v>
       </c>
     </row>
     <row r="61">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.0002868999999989796</v>
+        <v>0.0003073999999969601</v>
       </c>
     </row>
     <row r="62">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.0006130000000013069</v>
+        <v>0.000286000000002673</v>
       </c>
     </row>
     <row r="63">
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.0003315000000014834</v>
+        <v>0.0002970999999973856</v>
       </c>
     </row>
     <row r="64">
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.0002967999999938797</v>
+        <v>0.0005801000000005274</v>
       </c>
     </row>
     <row r="65">
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.0002900999999937426</v>
+        <v>0.0003026999999988789</v>
       </c>
     </row>
     <row r="66">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.0003314000000003148</v>
+        <v>0.0002962000000010789</v>
       </c>
     </row>
     <row r="67">
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.0003050999999985038</v>
+        <v>0.0003086999999979412</v>
       </c>
     </row>
     <row r="68">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.0002932000000015478</v>
+        <v>0.0003178999999988719</v>
       </c>
     </row>
     <row r="69">
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.000339400000001433</v>
+        <v>0.000294199999999023</v>
       </c>
     </row>
     <row r="70">
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.0003030000000023847</v>
+        <v>0.0002855000000039354</v>
       </c>
     </row>
     <row r="71">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.0002898999999985108</v>
+        <v>0.000313099999999622</v>
       </c>
     </row>
     <row r="72">
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.0002977999999984604</v>
+        <v>0.0002763000000030047</v>
       </c>
     </row>
     <row r="73">
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.0003145000000017717</v>
+        <v>0.0003110999999975661</v>
       </c>
     </row>
     <row r="74">
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.0002881999999999607</v>
+        <v>0.0002879000000035603</v>
       </c>
     </row>
     <row r="75">
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.0004507999999958656</v>
+        <v>0.0003066999999958853</v>
       </c>
     </row>
     <row r="76">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.0003122999999973786</v>
+        <v>0.0002988000000030411</v>
       </c>
     </row>
     <row r="77">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.0002884000000022979</v>
+        <v>0.0002892999999986046</v>
       </c>
     </row>
     <row r="78">
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.0003407000000024141</v>
+        <v>0.0003169000000013966</v>
       </c>
     </row>
     <row r="79">
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.0006496000000026925</v>
+        <v>0.0003026999999988789</v>
       </c>
     </row>
     <row r="80">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.0003097000000025218</v>
+        <v>0.000286799999997811</v>
       </c>
     </row>
     <row r="81">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.0002931000000003792</v>
+        <v>0.0004490999999973155</v>
       </c>
     </row>
     <row r="82">
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.0003040999999939231</v>
+        <v>0.0002949000000000979</v>
       </c>
     </row>
     <row r="83">
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.0003268999999974653</v>
+        <v>0.0003018999999966354</v>
       </c>
     </row>
     <row r="84">
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.0003172000000049024</v>
+        <v>0.0002854000000027668</v>
       </c>
     </row>
     <row r="85">
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.0003332000000000335</v>
+        <v>0.0003188000000022839</v>
       </c>
     </row>
     <row r="86">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.0003402999999977396</v>
+        <v>0.0002874000000048227</v>
       </c>
     </row>
     <row r="87">
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.0003206999999960658</v>
+        <v>0.0002964999999974793</v>
       </c>
     </row>
     <row r="88">
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.0003024999999965416</v>
+        <v>0.0003918999999967809</v>
       </c>
     </row>
     <row r="89">
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.0002982000000031348</v>
+        <v>0.0003045999999997662</v>
       </c>
     </row>
     <row r="90">
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.0003614000000027318</v>
+        <v>0.0002872000000024855</v>
       </c>
     </row>
     <row r="91">
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.000316400000002659</v>
+        <v>0.0003804999999985625</v>
       </c>
     </row>
     <row r="92">
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.0003032999999987851</v>
+        <v>0.0002856999999991672</v>
       </c>
     </row>
     <row r="93">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.0003177999999977033</v>
+        <v>0.0003111999999987347</v>
       </c>
     </row>
     <row r="94">
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.0002965999999986479</v>
+        <v>0.0002914000000018291</v>
       </c>
     </row>
     <row r="95">
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.0003020999999989726</v>
+        <v>0.0003139999999959286</v>
       </c>
     </row>
     <row r="96">
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.0002925000000004729</v>
+        <v>0.000321299999995972</v>
       </c>
     </row>
     <row r="97">
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.0003299999999981651</v>
+        <v>0.0002969000000021538</v>
       </c>
     </row>
     <row r="98">
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.0002977999999984604</v>
+        <v>0.0003086999999979412</v>
       </c>
     </row>
     <row r="99">
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.0002922999999981357</v>
+        <v>0.000312300000004484</v>
       </c>
     </row>
     <row r="100">
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.0003146999999970035</v>
+        <v>0.0002899000000056162</v>
       </c>
     </row>
     <row r="101">
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.0003001999999980853</v>
+        <v>0.0003573000000045568</v>
       </c>
     </row>
   </sheetData>

--- a/tests/test1/d20/N, 0.0.xlsx
+++ b/tests/test1/d20/N, 0.0.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.002089700000006189</v>
+        <v>0.00184719999998606</v>
       </c>
     </row>
     <row r="3">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.003896399999995026</v>
+        <v>0.01158639999999878</v>
       </c>
     </row>
     <row r="4">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.0005890999999991209</v>
+        <v>0.0006726000000014665</v>
       </c>
     </row>
     <row r="5">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.0003384000000039578</v>
+        <v>0.0005292999999966241</v>
       </c>
     </row>
     <row r="6">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.0003869000000022993</v>
+        <v>0.000487300000003188</v>
       </c>
     </row>
     <row r="7">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.0005446999999989544</v>
+        <v>0.0003480000000024575</v>
       </c>
     </row>
     <row r="8">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.0003803999999973939</v>
+        <v>0.003063099999991437</v>
       </c>
     </row>
     <row r="9">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.0005486999999959608</v>
+        <v>0.001404700000009029</v>
       </c>
     </row>
     <row r="10">
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.0003388000000015268</v>
+        <v>0.000366499999998382</v>
       </c>
     </row>
     <row r="11">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.0005138000000002307</v>
+        <v>0.000336099999998396</v>
       </c>
     </row>
     <row r="12">
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.00189860000000408</v>
+        <v>0.0004217000000039661</v>
       </c>
     </row>
     <row r="13">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.0004850999999987948</v>
+        <v>0.0003428999999925963</v>
       </c>
     </row>
     <row r="14">
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.0008363999999971838</v>
+        <v>0.0003815000000031432</v>
       </c>
     </row>
     <row r="15">
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.0004300000000014848</v>
+        <v>0.001114799999996308</v>
       </c>
     </row>
     <row r="16">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.0005071999999941568</v>
+        <v>0.0004809999999935144</v>
       </c>
     </row>
     <row r="17">
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.0003180000000000405</v>
+        <v>0.0005661000000003469</v>
       </c>
     </row>
     <row r="18">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.0003085999999967726</v>
+        <v>0.0004842999999965514</v>
       </c>
     </row>
     <row r="19">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.0004361000000017157</v>
+        <v>0.0003322000000025582</v>
       </c>
     </row>
     <row r="20">
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.0003317000000038206</v>
+        <v>0.001858699999999658</v>
       </c>
     </row>
     <row r="21">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.0003005000000015912</v>
+        <v>0.0005017999999950007</v>
       </c>
     </row>
     <row r="22">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.0005589000000014721</v>
+        <v>0.0005622000000045091</v>
       </c>
     </row>
     <row r="23">
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.0003644999999963261</v>
+        <v>0.0005278000000004113</v>
       </c>
     </row>
     <row r="24">
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.000400599999998974</v>
+        <v>0.0005094999999926131</v>
       </c>
     </row>
     <row r="25">
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.0005183000000030802</v>
+        <v>0.001171199999987493</v>
       </c>
     </row>
     <row r="26">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.0005025999999972441</v>
+        <v>0.0005043999999969628</v>
       </c>
     </row>
     <row r="27">
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.0003305999999980713</v>
+        <v>0.0005024999999960755</v>
       </c>
     </row>
     <row r="28">
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.003200499999998385</v>
+        <v>0.0007425000000012005</v>
       </c>
     </row>
     <row r="29">
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.0003334000000023707</v>
+        <v>0.00120979999999804</v>
       </c>
     </row>
     <row r="30">
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.0003351000000009208</v>
+        <v>0.0005519000000049346</v>
       </c>
     </row>
     <row r="31">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.0003435999999936712</v>
+        <v>0.0005713000000042712</v>
       </c>
     </row>
     <row r="32">
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.0004957000000018752</v>
+        <v>0.0005458999999916614</v>
       </c>
     </row>
     <row r="33">
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.0003211000000007402</v>
+        <v>0.0005732000000051585</v>
       </c>
     </row>
     <row r="34">
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.0005844999999951028</v>
+        <v>0.0007270999999917649</v>
       </c>
     </row>
     <row r="35">
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.0003063999999994849</v>
+        <v>0.0003303000000016709</v>
       </c>
     </row>
     <row r="36">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.0003235000000003652</v>
+        <v>0.0005965000000003329</v>
       </c>
     </row>
     <row r="37">
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.0005357000000003609</v>
+        <v>0.0005655000000075461</v>
       </c>
     </row>
     <row r="38">
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.0003124999999997158</v>
+        <v>0.0004826999999920645</v>
       </c>
     </row>
     <row r="39">
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.0003195999999974219</v>
+        <v>0.0005446000000119966</v>
       </c>
     </row>
     <row r="40">
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.0003470000000049822</v>
+        <v>0.0005563999999935731</v>
       </c>
     </row>
     <row r="41">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.0003393000000002644</v>
+        <v>0.0004358999999993785</v>
       </c>
     </row>
     <row r="42">
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.0003250000000036835</v>
+        <v>0.0005406999999877371</v>
       </c>
     </row>
     <row r="43">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.0003032999999987851</v>
+        <v>0.0005696000000057211</v>
       </c>
     </row>
     <row r="44">
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.0009571000000008212</v>
+        <v>0.0005899999999883221</v>
       </c>
     </row>
     <row r="45">
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.0003207000000031712</v>
+        <v>0.0005144999999942002</v>
       </c>
     </row>
     <row r="46">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.0002876000000000545</v>
+        <v>0.0003584999999901584</v>
       </c>
     </row>
     <row r="47">
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.0002874000000048227</v>
+        <v>0.000469300000006001</v>
       </c>
     </row>
     <row r="48">
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.0003069999999993911</v>
+        <v>0.0004618999999905782</v>
       </c>
     </row>
     <row r="49">
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.0002898999999985108</v>
+        <v>0.0004986000000002377</v>
       </c>
     </row>
     <row r="50">
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.0002872000000024855</v>
+        <v>0.0003470000000049822</v>
       </c>
     </row>
     <row r="51">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.0003071999999946229</v>
+        <v>0.0004147000000074286</v>
       </c>
     </row>
     <row r="52">
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.0002878000000023917</v>
+        <v>0.0003600999999946453</v>
       </c>
     </row>
     <row r="53">
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.0002831999999983736</v>
+        <v>0.0005117999999981748</v>
       </c>
     </row>
     <row r="54">
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.000705899999999815</v>
+        <v>0.0005714999999923975</v>
       </c>
     </row>
     <row r="55">
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.0002976000000032286</v>
+        <v>0.0003600000000005821</v>
       </c>
     </row>
     <row r="56">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.0003004000000004226</v>
+        <v>0.0003856999999953814</v>
       </c>
     </row>
     <row r="57">
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.0002881999999999607</v>
+        <v>0.0004916000000037002</v>
       </c>
     </row>
     <row r="58">
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.0003183999999976095</v>
+        <v>0.0003597999999982449</v>
       </c>
     </row>
     <row r="59">
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.0003047000000009348</v>
+        <v>0.00049640000000295</v>
       </c>
     </row>
     <row r="60">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.0003047000000009348</v>
+        <v>0.0005724999999898728</v>
       </c>
     </row>
     <row r="61">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.0003073999999969601</v>
+        <v>0.0005410999999924115</v>
       </c>
     </row>
     <row r="62">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.000286000000002673</v>
+        <v>0.000533300000000736</v>
       </c>
     </row>
     <row r="63">
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.0002970999999973856</v>
+        <v>0.0004431999999923164</v>
       </c>
     </row>
     <row r="64">
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.0005801000000005274</v>
+        <v>0.0005859999999984211</v>
       </c>
     </row>
     <row r="65">
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.0003026999999988789</v>
+        <v>0.0006001999999938334</v>
       </c>
     </row>
     <row r="66">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.0002962000000010789</v>
+        <v>0.0005793999999923471</v>
       </c>
     </row>
     <row r="67">
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.0003086999999979412</v>
+        <v>0.0005258000000054608</v>
       </c>
     </row>
     <row r="68">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.0003178999999988719</v>
+        <v>0.0003398000000061074</v>
       </c>
     </row>
     <row r="69">
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.000294199999999023</v>
+        <v>0.0006917000000044027</v>
       </c>
     </row>
     <row r="70">
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.0002855000000039354</v>
+        <v>0.0005986000000035574</v>
       </c>
     </row>
     <row r="71">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.000313099999999622</v>
+        <v>0.0006101000000029444</v>
       </c>
     </row>
     <row r="72">
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.0002763000000030047</v>
+        <v>0.0006135000000000446</v>
       </c>
     </row>
     <row r="73">
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.0003110999999975661</v>
+        <v>0.0005199000000004617</v>
       </c>
     </row>
     <row r="74">
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.0002879000000035603</v>
+        <v>0.0004728999999912276</v>
       </c>
     </row>
     <row r="75">
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.0003066999999958853</v>
+        <v>0.000357500000006894</v>
       </c>
     </row>
     <row r="76">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.0002988000000030411</v>
+        <v>0.0003406999999953086</v>
       </c>
     </row>
     <row r="77">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.0002892999999986046</v>
+        <v>0.0005398999999925991</v>
       </c>
     </row>
     <row r="78">
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.0003169000000013966</v>
+        <v>0.0003146999999898981</v>
       </c>
     </row>
     <row r="79">
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.0003026999999988789</v>
+        <v>0.000354999999998995</v>
       </c>
     </row>
     <row r="80">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.000286799999997811</v>
+        <v>0.0005774000000116075</v>
       </c>
     </row>
     <row r="81">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.0004490999999973155</v>
+        <v>0.0003475000000037198</v>
       </c>
     </row>
     <row r="82">
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.0002949000000000979</v>
+        <v>0.0005345999999946116</v>
       </c>
     </row>
     <row r="83">
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.0003018999999966354</v>
+        <v>0.0005106000000125732</v>
       </c>
     </row>
     <row r="84">
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.0002854000000027668</v>
+        <v>0.0005110000000030368</v>
       </c>
     </row>
     <row r="85">
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.0003188000000022839</v>
+        <v>0.0003387000000003582</v>
       </c>
     </row>
     <row r="86">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.0002874000000048227</v>
+        <v>0.000304900000003272</v>
       </c>
     </row>
     <row r="87">
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.0002964999999974793</v>
+        <v>0.0002938999999884118</v>
       </c>
     </row>
     <row r="88">
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.0003918999999967809</v>
+        <v>0.0003365000000030705</v>
       </c>
     </row>
     <row r="89">
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.0003045999999997662</v>
+        <v>0.0004677000000015141</v>
       </c>
     </row>
     <row r="90">
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.0002872000000024855</v>
+        <v>0.0003633999999976822</v>
       </c>
     </row>
     <row r="91">
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.0003804999999985625</v>
+        <v>0.0005666999999931477</v>
       </c>
     </row>
     <row r="92">
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.0002856999999991672</v>
+        <v>0.0003192000000069584</v>
       </c>
     </row>
     <row r="93">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.0003111999999987347</v>
+        <v>0.0003079999999897609</v>
       </c>
     </row>
     <row r="94">
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.0002914000000018291</v>
+        <v>0.000321299999995972</v>
       </c>
     </row>
     <row r="95">
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.0003139999999959286</v>
+        <v>0.0003042999999962603</v>
       </c>
     </row>
     <row r="96">
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.000321299999995972</v>
+        <v>0.0002848999999969237</v>
       </c>
     </row>
     <row r="97">
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.0002969000000021538</v>
+        <v>0.0002937999999943486</v>
       </c>
     </row>
     <row r="98">
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.0003086999999979412</v>
+        <v>0.0003235000000074706</v>
       </c>
     </row>
     <row r="99">
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.000312300000004484</v>
+        <v>0.0002874000000048227</v>
       </c>
     </row>
     <row r="100">
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.0002899000000056162</v>
+        <v>0.0002957000000094467</v>
       </c>
     </row>
     <row r="101">
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.0003573000000045568</v>
+        <v>0.0003275000000115824</v>
       </c>
     </row>
   </sheetData>

--- a/tests/test1/d20/N, 0.0.xlsx
+++ b/tests/test1/d20/N, 0.0.xlsx
@@ -532,13 +532,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>20.00000000000145</v>
+        <v>19.99999999999995</v>
       </c>
       <c r="G2" t="n">
-        <v>98.78643070691913</v>
+        <v>98.78643070691908</v>
       </c>
       <c r="H2" t="n">
-        <v>11.58227239647007</v>
+        <v>11.58227239646893</v>
       </c>
       <c r="I2" t="n">
         <v>44.32671026784765</v>
@@ -547,16 +547,16 @@
         <v>21.33251976353872</v>
       </c>
       <c r="K2" t="n">
-        <v>44.32671026784791</v>
+        <v>44.32671026784771</v>
       </c>
       <c r="L2" t="n">
-        <v>21.33251976353962</v>
+        <v>21.33251976353777</v>
       </c>
       <c r="M2" t="n">
-        <v>8.168149050791934e-27</v>
+        <v>1.80827684805613e-27</v>
       </c>
       <c r="N2" t="n">
-        <v>3.751443043389988e-13</v>
+        <v>1.271300084512938e-13</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.00184719999998606</v>
+        <v>0.0003034000000070591</v>
       </c>
     </row>
     <row r="3">
@@ -584,13 +584,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>20.00000000000299</v>
+        <v>19.99999999999633</v>
       </c>
       <c r="G3" t="n">
-        <v>75.06396084646477</v>
+        <v>75.06396084646325</v>
       </c>
       <c r="H3" t="n">
-        <v>11.64389392130802</v>
+        <v>11.64389392130294</v>
       </c>
       <c r="I3" t="n">
         <v>34.95824278912326</v>
@@ -599,16 +599,16 @@
         <v>25.60484930330038</v>
       </c>
       <c r="K3" t="n">
-        <v>34.9582427891237</v>
+        <v>34.95824278912283</v>
       </c>
       <c r="L3" t="n">
-        <v>25.60484930330484</v>
+        <v>25.60484930329496</v>
       </c>
       <c r="M3" t="n">
-        <v>2.953083468564256e-26</v>
+        <v>5.485000959653826e-26</v>
       </c>
       <c r="N3" t="n">
-        <v>8.963729702320776e-13</v>
+        <v>1.095530927350191e-12</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.01158639999999878</v>
+        <v>0.0003260000000011587</v>
       </c>
     </row>
     <row r="4">
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>20.00000000000025</v>
+        <v>20.00000000000082</v>
       </c>
       <c r="G4" t="n">
-        <v>78.47908238556043</v>
+        <v>78.4790823855613</v>
       </c>
       <c r="H4" t="n">
-        <v>3.311114781934783</v>
+        <v>3.311114781934943</v>
       </c>
       <c r="I4" t="n">
         <v>15.56656275893635</v>
@@ -651,16 +651,16 @@
         <v>18.86935545809921</v>
       </c>
       <c r="K4" t="n">
-        <v>15.56656275893642</v>
+        <v>15.56656275893654</v>
       </c>
       <c r="L4" t="n">
-        <v>18.86935545809833</v>
+        <v>18.86935545809892</v>
       </c>
       <c r="M4" t="n">
-        <v>4.734456324197896e-28</v>
+        <v>4.583643153461217e-27</v>
       </c>
       <c r="N4" t="n">
-        <v>1.640856793417778e-13</v>
+        <v>2.778431164065626e-13</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.0006726000000014665</v>
+        <v>0.0002541000000064741</v>
       </c>
     </row>
     <row r="5">
@@ -688,13 +688,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>19.9999999999972</v>
+        <v>20.00000000000098</v>
       </c>
       <c r="G5" t="n">
-        <v>99.14362246342353</v>
+        <v>99.14362246342444</v>
       </c>
       <c r="H5" t="n">
-        <v>11.49777387141513</v>
+        <v>11.49777387141791</v>
       </c>
       <c r="I5" t="n">
         <v>44.23827129596256</v>
@@ -703,16 +703,16 @@
         <v>21.20345840520746</v>
       </c>
       <c r="K5" t="n">
-        <v>44.23827129596217</v>
+        <v>44.23827129596275</v>
       </c>
       <c r="L5" t="n">
-        <v>21.20345840520552</v>
+        <v>21.20345840520996</v>
       </c>
       <c r="M5" t="n">
-        <v>2.94624974676525e-26</v>
+        <v>5.332457477092175e-27</v>
       </c>
       <c r="N5" t="n">
-        <v>7.150336974630286e-13</v>
+        <v>4.100656980191076e-13</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.0005292999999966241</v>
+        <v>0.0002412999999990006</v>
       </c>
     </row>
     <row r="6">
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>19.9999999999998</v>
+        <v>19.99999999999944</v>
       </c>
       <c r="G6" t="n">
-        <v>174.065371022462</v>
+        <v>174.0653710224616</v>
       </c>
       <c r="H6" t="n">
-        <v>9.566786990108586</v>
+        <v>9.56678699010814</v>
       </c>
       <c r="I6" t="n">
         <v>21.56436866719725</v>
@@ -755,16 +755,16 @@
         <v>6.41396481681925</v>
       </c>
       <c r="K6" t="n">
-        <v>21.56436866719712</v>
+        <v>21.56436866719676</v>
       </c>
       <c r="L6" t="n">
-        <v>6.413964816819557</v>
+        <v>6.413964816819727</v>
       </c>
       <c r="M6" t="n">
-        <v>1.153990065369055e-27</v>
+        <v>1.97907276391542e-26</v>
       </c>
       <c r="N6" t="n">
-        <v>1.346029924588911e-13</v>
+        <v>3.877997062409906e-13</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.000487300000003188</v>
+        <v>0.0001986999999985528</v>
       </c>
     </row>
     <row r="7">
@@ -792,13 +792,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>19.99999999999778</v>
+        <v>19.99999999999671</v>
       </c>
       <c r="G7" t="n">
-        <v>39.95877079615225</v>
+        <v>39.95877079615222</v>
       </c>
       <c r="H7" t="n">
-        <v>13.44878767412663</v>
+        <v>13.44878767412548</v>
       </c>
       <c r="I7" t="n">
         <v>21.19065735311351</v>
@@ -807,16 +807,16 @@
         <v>31.91172483743855</v>
       </c>
       <c r="K7" t="n">
-        <v>21.19065735311324</v>
+        <v>21.19065735311311</v>
       </c>
       <c r="L7" t="n">
-        <v>31.91172483743265</v>
+        <v>31.91172483743035</v>
       </c>
       <c r="M7" t="n">
-        <v>1.626681631935161e-26</v>
+        <v>4.010095278964957e-26</v>
       </c>
       <c r="N7" t="n">
-        <v>7.436267908107784e-13</v>
+        <v>1.114404981186768e-12</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.0003480000000024575</v>
+        <v>0.0001914000000056149</v>
       </c>
     </row>
     <row r="8">
@@ -844,13 +844,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>19.9999999999995</v>
+        <v>20.00000000000076</v>
       </c>
       <c r="G8" t="n">
-        <v>160.7148272584813</v>
+        <v>160.7148272584796</v>
       </c>
       <c r="H8" t="n">
-        <v>6.983757663613982</v>
+        <v>6.983757663614456</v>
       </c>
       <c r="I8" t="n">
         <v>22.57367986124408</v>
@@ -859,16 +859,16 @@
         <v>10.25939500470955</v>
       </c>
       <c r="K8" t="n">
-        <v>22.57367986124392</v>
+        <v>22.57367986124438</v>
       </c>
       <c r="L8" t="n">
-        <v>10.25939500470827</v>
+        <v>10.25939500470917</v>
       </c>
       <c r="M8" t="n">
-        <v>3.565654250988632e-27</v>
+        <v>8.160339083021642e-27</v>
       </c>
       <c r="N8" t="n">
-        <v>3.266484297620565e-13</v>
+        <v>2.685593909218492e-13</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.003063099999991437</v>
+        <v>0.0002532999999971253</v>
       </c>
     </row>
     <row r="9">
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>20.00000000000025</v>
+        <v>19.99999999999977</v>
       </c>
       <c r="G9" t="n">
-        <v>13.73549208731246</v>
+        <v>13.73549208731236</v>
       </c>
       <c r="H9" t="n">
-        <v>12.35902550688149</v>
+        <v>12.35902550688071</v>
       </c>
       <c r="I9" t="n">
         <v>8.395584447363737</v>
@@ -911,16 +911,16 @@
         <v>32.13470811956061</v>
       </c>
       <c r="K9" t="n">
-        <v>8.395584447363774</v>
+        <v>8.395584447363685</v>
       </c>
       <c r="L9" t="n">
-        <v>32.13470811955968</v>
+        <v>32.13470811955828</v>
       </c>
       <c r="M9" t="n">
-        <v>2.057522543621839e-28</v>
+        <v>1.092048941673633e-27</v>
       </c>
       <c r="N9" t="n">
-        <v>8.229179536299756e-14</v>
+        <v>2.719725583706677e-13</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.001404700000009029</v>
+        <v>0.0002041999999846666</v>
       </c>
     </row>
     <row r="10">
@@ -948,13 +948,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>20.00000000001882</v>
+        <v>20.00000000002016</v>
       </c>
       <c r="G10" t="n">
-        <v>157.2172925025203</v>
+        <v>157.2172925025198</v>
       </c>
       <c r="H10" t="n">
-        <v>14.62248795386789</v>
+        <v>14.62248795386908</v>
       </c>
       <c r="I10" t="n">
         <v>81.3927713553782</v>
@@ -963,16 +963,16 @@
         <v>8.056033186416919</v>
       </c>
       <c r="K10" t="n">
-        <v>81.39277135538057</v>
+        <v>81.39277135538075</v>
       </c>
       <c r="L10" t="n">
-        <v>8.056033186426502</v>
+        <v>8.056033186427193</v>
       </c>
       <c r="M10" t="n">
-        <v>1.626692467423851e-24</v>
+        <v>1.862952113831766e-24</v>
       </c>
       <c r="N10" t="n">
-        <v>5.602416639563797e-12</v>
+        <v>6.003670137270119e-12</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.000366499999998382</v>
+        <v>0.0001891999999941163</v>
       </c>
     </row>
     <row r="11">
@@ -1000,13 +1000,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>20.00000000000015</v>
+        <v>20.00000000000012</v>
       </c>
       <c r="G11" t="n">
-        <v>1.867347699426039</v>
+        <v>1.867347699425988</v>
       </c>
       <c r="H11" t="n">
-        <v>9.022495105784735</v>
+        <v>9.02249510578465</v>
       </c>
       <c r="I11" t="n">
         <v>3.091364150809967</v>
@@ -1015,16 +1015,16 @@
         <v>28.24598523429134</v>
       </c>
       <c r="K11" t="n">
-        <v>3.09136415080998</v>
+        <v>3.091364150809967</v>
       </c>
       <c r="L11" t="n">
-        <v>28.24598523429266</v>
+        <v>28.24598523429252</v>
       </c>
       <c r="M11" t="n">
-        <v>5.574701132587966e-29</v>
+        <v>6.005595906121336e-29</v>
       </c>
       <c r="N11" t="n">
-        <v>1.1533399109785e-13</v>
+        <v>1.293630647381345e-13</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.000336099999998396</v>
+        <v>0.0002453000000173233</v>
       </c>
     </row>
     <row r="12">
@@ -1052,13 +1052,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>20.00000000000029</v>
+        <v>20.00000000000049</v>
       </c>
       <c r="G12" t="n">
-        <v>138.8377157880131</v>
+        <v>138.8377157880124</v>
       </c>
       <c r="H12" t="n">
-        <v>3.249023392312868</v>
+        <v>3.249023392312904</v>
       </c>
       <c r="I12" t="n">
         <v>14.50009772114043</v>
@@ -1067,16 +1067,16 @@
         <v>14.92377511516745</v>
       </c>
       <c r="K12" t="n">
-        <v>14.50009772114051</v>
+        <v>14.50009772114058</v>
       </c>
       <c r="L12" t="n">
-        <v>14.923775115169</v>
+        <v>14.92377511516922</v>
       </c>
       <c r="M12" t="n">
-        <v>8.634054024674888e-28</v>
+        <v>2.539316762278837e-27</v>
       </c>
       <c r="N12" t="n">
-        <v>2.617362653182189e-13</v>
+        <v>3.468694289405436e-13</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.0004217000000039661</v>
+        <v>0.0002167000000099506</v>
       </c>
     </row>
     <row r="13">
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>19.99999999999964</v>
+        <v>20.00000000000007</v>
       </c>
       <c r="G13" t="n">
-        <v>32.44854399781624</v>
+        <v>32.44854399781929</v>
       </c>
       <c r="H13" t="n">
-        <v>3.23370289785161</v>
+        <v>3.233702897851416</v>
       </c>
       <c r="I13" t="n">
         <v>8.947316066673613</v>
@@ -1119,16 +1119,16 @@
         <v>20.91271227320319</v>
       </c>
       <c r="K13" t="n">
-        <v>8.947316066673537</v>
+        <v>8.947316066673626</v>
       </c>
       <c r="L13" t="n">
-        <v>20.9127122732028</v>
+        <v>20.91271227320293</v>
       </c>
       <c r="M13" t="n">
-        <v>7.225566733687688e-28</v>
+        <v>7.459865766796456e-29</v>
       </c>
       <c r="N13" t="n">
-        <v>1.965228227096108e-13</v>
+        <v>1.014777380790047e-13</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.0003428999999925963</v>
+        <v>0.0002629000000240467</v>
       </c>
     </row>
     <row r="14">
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>19.99999999999943</v>
+        <v>19.99999999999962</v>
       </c>
       <c r="G14" t="n">
-        <v>27.749311628341</v>
+        <v>27.74931162834091</v>
       </c>
       <c r="H14" t="n">
-        <v>11.8805963581842</v>
+        <v>11.88059635818451</v>
       </c>
       <c r="I14" t="n">
         <v>14.58896536332175</v>
@@ -1171,16 +1171,16 @@
         <v>31.00025388231675</v>
       </c>
       <c r="K14" t="n">
-        <v>14.58896536332167</v>
+        <v>14.58896536332169</v>
       </c>
       <c r="L14" t="n">
-        <v>31.00025388231343</v>
+        <v>31.000253882314</v>
       </c>
       <c r="M14" t="n">
-        <v>1.97538322741704e-27</v>
+        <v>6.579224573387634e-28</v>
       </c>
       <c r="N14" t="n">
-        <v>3.389115311716105e-13</v>
+        <v>2.370327299583652e-13</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.0003815000000031432</v>
+        <v>0.0002293999999949392</v>
       </c>
     </row>
     <row r="15">
@@ -1208,13 +1208,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>19.99999999999962</v>
+        <v>19.99999999999911</v>
       </c>
       <c r="G15" t="n">
-        <v>139.9864339032882</v>
+        <v>139.9864339032884</v>
       </c>
       <c r="H15" t="n">
-        <v>5.850494640418802</v>
+        <v>5.850494640418578</v>
       </c>
       <c r="I15" t="n">
         <v>25.33499649909478</v>
@@ -1223,16 +1223,16 @@
         <v>13.2842839938443</v>
       </c>
       <c r="K15" t="n">
-        <v>25.33499649909468</v>
+        <v>25.33499649909451</v>
       </c>
       <c r="L15" t="n">
-        <v>13.2842839938448</v>
+        <v>13.28428399384443</v>
       </c>
       <c r="M15" t="n">
-        <v>1.334696561019612e-27</v>
+        <v>7.462020240664125e-27</v>
       </c>
       <c r="N15" t="n">
-        <v>1.672358017636789e-13</v>
+        <v>2.641282548696995e-13</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.001114799999996308</v>
+        <v>0.0002494000000012875</v>
       </c>
     </row>
     <row r="16">
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>19.99999999999904</v>
+        <v>19.99999999999982</v>
       </c>
       <c r="G16" t="n">
-        <v>92.50980187908394</v>
+        <v>92.50980187908388</v>
       </c>
       <c r="H16" t="n">
-        <v>12.27798062495083</v>
+        <v>12.27798062495147</v>
       </c>
       <c r="I16" t="n">
         <v>43.51026779230099</v>
@@ -1275,16 +1275,16 @@
         <v>23.0795266139911</v>
       </c>
       <c r="K16" t="n">
-        <v>43.51026779230087</v>
+        <v>43.51026779230095</v>
       </c>
       <c r="L16" t="n">
-        <v>23.07952661399121</v>
+        <v>23.07952661399229</v>
       </c>
       <c r="M16" t="n">
-        <v>3.076857992261716e-27</v>
+        <v>6.513243811190336e-28</v>
       </c>
       <c r="N16" t="n">
-        <v>1.928478227484031e-13</v>
+        <v>1.283074607133435e-13</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.0004809999999935144</v>
+        <v>0.0002457000000219978</v>
       </c>
     </row>
     <row r="17">
@@ -1312,13 +1312,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>20.00000000000038</v>
+        <v>20.00000000000166</v>
       </c>
       <c r="G17" t="n">
-        <v>152.7871855083438</v>
+        <v>152.7871855083419</v>
       </c>
       <c r="H17" t="n">
-        <v>5.146751099052122</v>
+        <v>5.146751099052536</v>
       </c>
       <c r="I17" t="n">
         <v>18.56949776560077</v>
@@ -1327,16 +1327,16 @@
         <v>12.54421959985167</v>
       </c>
       <c r="K17" t="n">
-        <v>18.5694977656009</v>
+        <v>18.56949776560133</v>
       </c>
       <c r="L17" t="n">
-        <v>12.54421959985103</v>
+        <v>12.54421959985203</v>
       </c>
       <c r="M17" t="n">
-        <v>1.657329022702722e-27</v>
+        <v>3.124310279197079e-26</v>
       </c>
       <c r="N17" t="n">
-        <v>1.917328009990197e-13</v>
+        <v>5.155982933743152e-13</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.0005661000000003469</v>
+        <v>0.000252099999983102</v>
       </c>
     </row>
     <row r="18">
@@ -1364,13 +1364,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>19.99999999999984</v>
+        <v>20.00000000000064</v>
       </c>
       <c r="G18" t="n">
-        <v>40.19239424763786</v>
+        <v>40.1923942476377</v>
       </c>
       <c r="H18" t="n">
-        <v>9.277960096807657</v>
+        <v>9.277960096808375</v>
       </c>
       <c r="I18" t="n">
         <v>17.88767679762028</v>
@@ -1379,16 +1379,16 @@
         <v>27.2033509828832</v>
       </c>
       <c r="K18" t="n">
-        <v>17.88767679762027</v>
+        <v>17.88767679762038</v>
       </c>
       <c r="L18" t="n">
-        <v>27.20335098288428</v>
+        <v>27.20335098288585</v>
       </c>
       <c r="M18" t="n">
-        <v>1.791714330198442e-27</v>
+        <v>1.579498654233257e-27</v>
       </c>
       <c r="N18" t="n">
-        <v>2.109919617470125e-13</v>
+        <v>2.784887685492215e-13</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.0004842999999965514</v>
+        <v>0.0002786999999955242</v>
       </c>
     </row>
     <row r="19">
@@ -1416,13 +1416,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>20.00000000000049</v>
+        <v>20.0000000000006</v>
       </c>
       <c r="G19" t="n">
-        <v>53.03970048368019</v>
+        <v>53.0397004836792</v>
       </c>
       <c r="H19" t="n">
-        <v>9.367041067263781</v>
+        <v>9.367041067264113</v>
       </c>
       <c r="I19" t="n">
         <v>22.80758777377703</v>
@@ -1431,16 +1431,16 @@
         <v>26.18982127859822</v>
       </c>
       <c r="K19" t="n">
-        <v>22.8075877737771</v>
+        <v>22.80758777377708</v>
       </c>
       <c r="L19" t="n">
-        <v>26.18982127859817</v>
+        <v>26.18982127859872</v>
       </c>
       <c r="M19" t="n">
-        <v>9.28578236964411e-28</v>
+        <v>3.032421968741087e-27</v>
       </c>
       <c r="N19" t="n">
-        <v>1.031720553139904e-13</v>
+        <v>2.155676195331066e-13</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.0003322000000025582</v>
+        <v>0.0002310999999792784</v>
       </c>
     </row>
     <row r="20">
@@ -1468,13 +1468,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>20.00000000000004</v>
+        <v>19.9999999999954</v>
       </c>
       <c r="G20" t="n">
-        <v>117.0673635131269</v>
+        <v>117.0673635131285</v>
       </c>
       <c r="H20" t="n">
-        <v>9.065440484818131</v>
+        <v>9.065440484815243</v>
       </c>
       <c r="I20" t="n">
         <v>41.12890466717757</v>
@@ -1483,16 +1483,16 @@
         <v>16.50686888128499</v>
       </c>
       <c r="K20" t="n">
-        <v>41.12890466717761</v>
+        <v>41.12890466717677</v>
       </c>
       <c r="L20" t="n">
-        <v>16.50686888128449</v>
+        <v>16.50686888127986</v>
       </c>
       <c r="M20" t="n">
-        <v>4.118411452661906e-28</v>
+        <v>1.134491403593586e-25</v>
       </c>
       <c r="N20" t="n">
-        <v>7.914548768097036e-14</v>
+        <v>1.558430048380191e-12</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.001858699999999658</v>
+        <v>0.005462399999998979</v>
       </c>
     </row>
     <row r="21">
@@ -1520,13 +1520,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>20.00000000000005</v>
+        <v>20.00000000000079</v>
       </c>
       <c r="G21" t="n">
-        <v>17.55604831490157</v>
+        <v>17.55604831490163</v>
       </c>
       <c r="H21" t="n">
-        <v>12.13499660009791</v>
+        <v>12.13499660009903</v>
       </c>
       <c r="I21" t="n">
         <v>10.08818411982853</v>
@@ -1535,16 +1535,16 @@
         <v>31.75837563530379</v>
       </c>
       <c r="K21" t="n">
-        <v>10.08818411982853</v>
+        <v>10.08818411982865</v>
       </c>
       <c r="L21" t="n">
-        <v>31.75837563530248</v>
+        <v>31.75837563530455</v>
       </c>
       <c r="M21" t="n">
-        <v>4.381661228367451e-28</v>
+        <v>2.878646396436366e-27</v>
       </c>
       <c r="N21" t="n">
-        <v>1.520227663597731e-13</v>
+        <v>2.327383765160471e-13</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.0005017999999950007</v>
+        <v>0.0002415999999811902</v>
       </c>
     </row>
     <row r="22">
@@ -1572,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>19.99999999999926</v>
+        <v>20.00000000000801</v>
       </c>
       <c r="G22" t="n">
-        <v>105.8635441939097</v>
+        <v>105.86354419391</v>
       </c>
       <c r="H22" t="n">
-        <v>13.77256473491233</v>
+        <v>13.77256473491998</v>
       </c>
       <c r="I22" t="n">
         <v>52.99086548673188</v>
@@ -1587,16 +1587,16 @@
         <v>21.3741511885343</v>
       </c>
       <c r="K22" t="n">
-        <v>52.99086548673183</v>
+        <v>52.99086548673287</v>
       </c>
       <c r="L22" t="n">
-        <v>21.37415118853317</v>
+        <v>21.37415118854391</v>
       </c>
       <c r="M22" t="n">
-        <v>3.372492203290626e-27</v>
+        <v>1.962441572203199e-25</v>
       </c>
       <c r="N22" t="n">
-        <v>2.347506538108158e-13</v>
+        <v>2.277428521514163e-12</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.0005622000000045091</v>
+        <v>0.0002547999999933381</v>
       </c>
     </row>
     <row r="23">
@@ -1624,13 +1624,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>20.00000000000025</v>
+        <v>19.99999999999971</v>
       </c>
       <c r="G23" t="n">
-        <v>8.770478545643234</v>
+        <v>8.770478545642522</v>
       </c>
       <c r="H23" t="n">
-        <v>6.469315917477781</v>
+        <v>6.469315917477935</v>
       </c>
       <c r="I23" t="n">
         <v>5.36750693504376</v>
@@ -1639,16 +1639,16 @@
         <v>25.16639260177412</v>
       </c>
       <c r="K23" t="n">
-        <v>5.367506935043798</v>
+        <v>5.367506935043722</v>
       </c>
       <c r="L23" t="n">
-        <v>25.16639260177634</v>
+        <v>25.166392601776</v>
       </c>
       <c r="M23" t="n">
-        <v>2.294514669065192e-28</v>
+        <v>2.67154759590689e-28</v>
       </c>
       <c r="N23" t="n">
-        <v>1.699745804512235e-13</v>
+        <v>1.930010993171735e-13</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.0005278000000004113</v>
+        <v>0.000290100000000848</v>
       </c>
     </row>
     <row r="24">
@@ -1676,13 +1676,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>19.99999999999994</v>
+        <v>19.99999999999903</v>
       </c>
       <c r="G24" t="n">
-        <v>37.52289672459155</v>
+        <v>37.52289672459216</v>
       </c>
       <c r="H24" t="n">
-        <v>8.780172741160388</v>
+        <v>8.780172741159415</v>
       </c>
       <c r="I24" t="n">
         <v>16.42485345887366</v>
@@ -1691,16 +1691,16 @@
         <v>26.83511193928066</v>
       </c>
       <c r="K24" t="n">
-        <v>16.42485345887365</v>
+        <v>16.42485345887352</v>
       </c>
       <c r="L24" t="n">
-        <v>26.83511193927928</v>
+        <v>26.83511193927728</v>
       </c>
       <c r="M24" t="n">
-        <v>4.282016811987858e-29</v>
+        <v>7.249804564698939e-27</v>
       </c>
       <c r="N24" t="n">
-        <v>8.896047567000403e-14</v>
+        <v>5.349013847936023e-13</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.0005094999999926131</v>
+        <v>0.0002197999999964395</v>
       </c>
     </row>
     <row r="25">
@@ -1728,13 +1728,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>20.00000000000367</v>
+        <v>20.00000000000734</v>
       </c>
       <c r="G25" t="n">
-        <v>93.11361909238661</v>
+        <v>93.11361909238748</v>
       </c>
       <c r="H25" t="n">
-        <v>14.36355124578106</v>
+        <v>14.36355124578431</v>
       </c>
       <c r="I25" t="n">
         <v>48.17804819258614</v>
@@ -1743,16 +1743,16 @@
         <v>24.6655445066675</v>
       </c>
       <c r="K25" t="n">
-        <v>48.17804819258654</v>
+        <v>48.178048192587</v>
       </c>
       <c r="L25" t="n">
-        <v>24.66554450667351</v>
+        <v>24.66554450667853</v>
       </c>
       <c r="M25" t="n">
-        <v>3.871932909469984e-26</v>
+        <v>1.508881060308891e-25</v>
       </c>
       <c r="N25" t="n">
-        <v>1.092602549107519e-12</v>
+        <v>2.131917254608351e-12</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.001171199999987493</v>
+        <v>0.0001958999999942534</v>
       </c>
     </row>
     <row r="26">
@@ -1780,13 +1780,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>20.00000000000125</v>
+        <v>19.99999999999718</v>
       </c>
       <c r="G26" t="n">
-        <v>172.8031146004642</v>
+        <v>172.8031146004673</v>
       </c>
       <c r="H26" t="n">
-        <v>11.39414459939564</v>
+        <v>11.39414459939312</v>
       </c>
       <c r="I26" t="n">
         <v>37.05770755775833</v>
@@ -1795,16 +1795,16 @@
         <v>4.784771626472109</v>
       </c>
       <c r="K26" t="n">
-        <v>37.05770755775892</v>
+        <v>37.05770755775662</v>
       </c>
       <c r="L26" t="n">
-        <v>4.78477162647271</v>
+        <v>4.784771626471104</v>
       </c>
       <c r="M26" t="n">
-        <v>3.169608092264773e-26</v>
+        <v>2.084815014613592e-25</v>
       </c>
       <c r="N26" t="n">
-        <v>5.483722012766359e-13</v>
+        <v>1.218838945743913e-12</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.0005043999999969628</v>
+        <v>0.0001936999999827549</v>
       </c>
     </row>
     <row r="27">
@@ -1832,13 +1832,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>20.00000000000009</v>
+        <v>19.99999999999887</v>
       </c>
       <c r="G27" t="n">
-        <v>156.6223445928983</v>
+        <v>156.6223445928989</v>
       </c>
       <c r="H27" t="n">
-        <v>9.987323144070791</v>
+        <v>9.987323144070025</v>
       </c>
       <c r="I27" t="n">
         <v>42.87464225195476</v>
@@ -1847,16 +1847,16 @@
         <v>8.709475492388034</v>
       </c>
       <c r="K27" t="n">
-        <v>42.87464225195483</v>
+        <v>42.8746422519544</v>
       </c>
       <c r="L27" t="n">
-        <v>8.70947549238805</v>
+        <v>8.709475492387398</v>
       </c>
       <c r="M27" t="n">
-        <v>6.702433547694832e-28</v>
+        <v>1.414735265203435e-26</v>
       </c>
       <c r="N27" t="n">
-        <v>3.905368903247934e-14</v>
+        <v>4.073746093648038e-13</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.0005024999999960755</v>
+        <v>0.0001919000000043525</v>
       </c>
     </row>
     <row r="28">
@@ -1884,13 +1884,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>20.00000000000028</v>
+        <v>20.00000000000183</v>
       </c>
       <c r="G28" t="n">
-        <v>55.42829147249406</v>
+        <v>55.42829147249453</v>
       </c>
       <c r="H28" t="n">
-        <v>9.232697751663975</v>
+        <v>9.232697751664986</v>
       </c>
       <c r="I28" t="n">
         <v>23.50223078865571</v>
@@ -1899,16 +1899,16 @@
         <v>25.81162416209323</v>
       </c>
       <c r="K28" t="n">
-        <v>23.50223078865572</v>
+        <v>23.50223078865596</v>
       </c>
       <c r="L28" t="n">
-        <v>25.81162416209552</v>
+        <v>25.81162416209791</v>
       </c>
       <c r="M28" t="n">
-        <v>1.503014831931084e-27</v>
+        <v>1.733408881154708e-26</v>
       </c>
       <c r="N28" t="n">
-        <v>2.63894100967196e-13</v>
+        <v>7.447767496082366e-13</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.0007425000000012005</v>
+        <v>0.0003376999999886721</v>
       </c>
     </row>
     <row r="29">
@@ -1936,13 +1936,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>19.99999999999653</v>
+        <v>20.00000000000022</v>
       </c>
       <c r="G29" t="n">
-        <v>76.62985389340035</v>
+        <v>76.62985389340106</v>
       </c>
       <c r="H29" t="n">
-        <v>12.77500488593181</v>
+        <v>12.77500488593487</v>
       </c>
       <c r="I29" t="n">
         <v>37.54462213366881</v>
@@ -1951,16 +1951,16 @@
         <v>26.39565896564254</v>
       </c>
       <c r="K29" t="n">
-        <v>37.54462213366838</v>
+        <v>37.54462213366882</v>
       </c>
       <c r="L29" t="n">
-        <v>26.39565896563688</v>
+        <v>26.39565896564254</v>
       </c>
       <c r="M29" t="n">
-        <v>3.885546491221304e-26</v>
+        <v>5.420521596433057e-28</v>
       </c>
       <c r="N29" t="n">
-        <v>1.038570335232879e-12</v>
+        <v>5.141675526241553e-14</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.00120979999999804</v>
+        <v>0.0002364000000056876</v>
       </c>
     </row>
     <row r="30">
@@ -1988,13 +1988,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>19.99999999999745</v>
+        <v>19.99999999999311</v>
       </c>
       <c r="G30" t="n">
-        <v>131.2224736120425</v>
+        <v>131.2224736120444</v>
       </c>
       <c r="H30" t="n">
-        <v>9.734875227930045</v>
+        <v>9.734875227927246</v>
       </c>
       <c r="I30" t="n">
         <v>45.79205508530252</v>
@@ -2003,16 +2003,16 @@
         <v>13.89068101942091</v>
       </c>
       <c r="K30" t="n">
-        <v>45.792055085302</v>
+        <v>45.79205508530114</v>
       </c>
       <c r="L30" t="n">
-        <v>13.8906810194194</v>
+        <v>13.89068101941573</v>
       </c>
       <c r="M30" t="n">
-        <v>3.837326672970584e-26</v>
+        <v>2.794364725279406e-25</v>
       </c>
       <c r="N30" t="n">
-        <v>7.589756071748841e-13</v>
+        <v>2.178956847989878e-12</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.0005519000000049346</v>
+        <v>0.0002154999999959273</v>
       </c>
     </row>
     <row r="31">
@@ -2040,13 +2040,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>20.0000000000001</v>
+        <v>20.00000000000098</v>
       </c>
       <c r="G31" t="n">
         <v>155.476797402615</v>
       </c>
       <c r="H31" t="n">
-        <v>6.418871582731589</v>
+        <v>6.418871582732061</v>
       </c>
       <c r="I31" t="n">
         <v>22.82783905909671</v>
@@ -2055,16 +2055,16 @@
         <v>11.25757446175414</v>
       </c>
       <c r="K31" t="n">
-        <v>22.82783905909679</v>
+        <v>22.82783905909716</v>
       </c>
       <c r="L31" t="n">
-        <v>11.25757446175427</v>
+        <v>11.25757446175471</v>
       </c>
       <c r="M31" t="n">
-        <v>4.080034886894091e-28</v>
+        <v>1.580952924093932e-26</v>
       </c>
       <c r="N31" t="n">
-        <v>6.999269728679966e-14</v>
+        <v>4.100334913194171e-13</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.0005713000000042712</v>
+        <v>0.0002477999999825897</v>
       </c>
     </row>
     <row r="32">
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>19.99999999999893</v>
+        <v>20.00000000000177</v>
       </c>
       <c r="G32" t="n">
-        <v>115.9458364923003</v>
+        <v>115.945836492299</v>
       </c>
       <c r="H32" t="n">
-        <v>7.568981875620822</v>
+        <v>7.568981875622359</v>
       </c>
       <c r="I32" t="n">
         <v>34.85112742421163</v>
@@ -2107,16 +2107,16 @@
         <v>16.34058174572703</v>
       </c>
       <c r="K32" t="n">
-        <v>34.85112742421138</v>
+        <v>34.85112742421197</v>
       </c>
       <c r="L32" t="n">
-        <v>16.34058174572657</v>
+        <v>16.3405817457294</v>
       </c>
       <c r="M32" t="n">
-        <v>7.236473757642753e-27</v>
+        <v>1.931014531204776e-26</v>
       </c>
       <c r="N32" t="n">
-        <v>3.010848714308053e-13</v>
+        <v>6.767683985130163e-13</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.0005458999999916614</v>
+        <v>0.007729699999998729</v>
       </c>
     </row>
     <row r="33">
@@ -2144,13 +2144,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>20.00000000000228</v>
+        <v>20.0000000000021</v>
       </c>
       <c r="G33" t="n">
-        <v>51.48968789889344</v>
+        <v>51.48968789889327</v>
       </c>
       <c r="H33" t="n">
-        <v>14.49726679823012</v>
+        <v>14.49726679823002</v>
       </c>
       <c r="I33" t="n">
         <v>27.6517349691609</v>
@@ -2159,16 +2159,16 @@
         <v>31.85401002845563</v>
       </c>
       <c r="K33" t="n">
-        <v>27.65173496916115</v>
+        <v>27.65173496916114</v>
       </c>
       <c r="L33" t="n">
-        <v>31.85401002846038</v>
+        <v>31.85401002846012</v>
       </c>
       <c r="M33" t="n">
-        <v>1.690669505804867e-26</v>
+        <v>1.538402065207512e-26</v>
       </c>
       <c r="N33" t="n">
-        <v>6.934909843204548e-13</v>
+        <v>6.507857625417327e-13</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.0005732000000051585</v>
+        <v>0.0002366999999878772</v>
       </c>
     </row>
     <row r="34">
@@ -2196,13 +2196,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>20.00000000000078</v>
+        <v>20.00000000000114</v>
       </c>
       <c r="G34" t="n">
-        <v>154.6000681127455</v>
+        <v>154.6000681127457</v>
       </c>
       <c r="H34" t="n">
-        <v>7.472533859703619</v>
+        <v>7.472533859703853</v>
       </c>
       <c r="I34" t="n">
         <v>28.38669219472616</v>
@@ -2211,16 +2211,16 @@
         <v>10.55219493556909</v>
       </c>
       <c r="K34" t="n">
-        <v>28.38669219472633</v>
+        <v>28.38669219472652</v>
       </c>
       <c r="L34" t="n">
-        <v>10.5521949355697</v>
+        <v>10.55219493556982</v>
       </c>
       <c r="M34" t="n">
-        <v>7.660770454956392e-27</v>
+        <v>1.496093584631204e-26</v>
       </c>
       <c r="N34" t="n">
-        <v>2.669949579852027e-13</v>
+        <v>4.091352637940917e-13</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.0007270999999917649</v>
+        <v>0.0002361000000234981</v>
       </c>
     </row>
     <row r="35">
@@ -2248,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>19.99999999999997</v>
+        <v>19.99999999999998</v>
       </c>
       <c r="G35" t="n">
-        <v>44.73182293879178</v>
+        <v>44.73182293879086</v>
       </c>
       <c r="H35" t="n">
-        <v>8.399705052609407</v>
+        <v>8.399705052609681</v>
       </c>
       <c r="I35" t="n">
         <v>18.6090803159811</v>
@@ -2263,16 +2263,16 @@
         <v>25.8983258433767</v>
       </c>
       <c r="K35" t="n">
-        <v>18.60908031598111</v>
+        <v>18.6090803159811</v>
       </c>
       <c r="L35" t="n">
-        <v>25.89832584337625</v>
+        <v>25.89832584337663</v>
       </c>
       <c r="M35" t="n">
-        <v>2.612299564546052e-28</v>
+        <v>2.95162919870358e-28</v>
       </c>
       <c r="N35" t="n">
-        <v>8.022218231484707e-14</v>
+        <v>5.754332269532535e-14</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.0003303000000016709</v>
+        <v>0.0002465999999969881</v>
       </c>
     </row>
     <row r="36">
@@ -2300,13 +2300,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>20.00000000000002</v>
+        <v>20</v>
       </c>
       <c r="G36" t="n">
-        <v>6.941102558653751</v>
+        <v>6.941102558653725</v>
       </c>
       <c r="H36" t="n">
-        <v>12.36120552629625</v>
+        <v>12.36120552629636</v>
       </c>
       <c r="I36" t="n">
         <v>5.272501281412788</v>
@@ -2315,16 +2315,16 @@
         <v>32.24479883815602</v>
       </c>
       <c r="K36" t="n">
-        <v>5.272501281412788</v>
+        <v>5.272501281412801</v>
       </c>
       <c r="L36" t="n">
-        <v>32.24479883815773</v>
+        <v>32.24479883815785</v>
       </c>
       <c r="M36" t="n">
-        <v>7.002040069917253e-29</v>
+        <v>1.314229059276777e-28</v>
       </c>
       <c r="N36" t="n">
-        <v>1.183294280809316e-13</v>
+        <v>1.479168533881012e-13</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.0005965000000003329</v>
+        <v>0.0002460999999982505</v>
       </c>
     </row>
     <row r="37">
@@ -2352,13 +2352,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>19.99999999999942</v>
+        <v>20.00000000000141</v>
       </c>
       <c r="G37" t="n">
-        <v>82.44989068033571</v>
+        <v>82.44989068033719</v>
       </c>
       <c r="H37" t="n">
-        <v>6.700195283578681</v>
+        <v>6.700195283579598</v>
       </c>
       <c r="I37" t="n">
         <v>26.3682126287348</v>
@@ -2367,16 +2367,16 @@
         <v>20.58139294425217</v>
       </c>
       <c r="K37" t="n">
-        <v>26.36821262873469</v>
+        <v>26.36821262873508</v>
       </c>
       <c r="L37" t="n">
-        <v>20.5813929442521</v>
+        <v>20.58139294425433</v>
       </c>
       <c r="M37" t="n">
-        <v>1.789290547097316e-27</v>
+        <v>1.027118485486824e-26</v>
       </c>
       <c r="N37" t="n">
-        <v>1.445362506611921e-13</v>
+        <v>5.14566201599401e-13</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.0005655000000075461</v>
+        <v>0.0002410000000168111</v>
       </c>
     </row>
     <row r="38">
@@ -2404,13 +2404,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>19.99999999999998</v>
+        <v>19.99999999999735</v>
       </c>
       <c r="G38" t="n">
-        <v>131.1312944872307</v>
+        <v>131.1312944872322</v>
       </c>
       <c r="H38" t="n">
-        <v>10.21937054844254</v>
+        <v>10.21937054844078</v>
       </c>
       <c r="I38" t="n">
         <v>48.16347976442483</v>
@@ -2419,16 +2419,16 @@
         <v>13.96841538265422</v>
       </c>
       <c r="K38" t="n">
-        <v>48.16347976442482</v>
+        <v>48.16347976442442</v>
       </c>
       <c r="L38" t="n">
-        <v>13.9684153826543</v>
+        <v>13.96841538265197</v>
       </c>
       <c r="M38" t="n">
-        <v>1.055018922073109e-28</v>
+        <v>4.005900787653842e-26</v>
       </c>
       <c r="N38" t="n">
-        <v>1.615216044651367e-14</v>
+        <v>8.408680583205269e-13</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.0004826999999920645</v>
+        <v>0.0002624000000253091</v>
       </c>
     </row>
     <row r="39">
@@ -2456,13 +2456,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>20.00000000000031</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="G39" t="n">
-        <v>170.009388514315</v>
+        <v>170.0093885143149</v>
       </c>
       <c r="H39" t="n">
-        <v>8.569178091653045</v>
+        <v>8.569178091652754</v>
       </c>
       <c r="I39" t="n">
         <v>22.15312424526588</v>
@@ -2471,16 +2471,16 @@
         <v>7.834932884569842</v>
       </c>
       <c r="K39" t="n">
-        <v>22.15312424526604</v>
+        <v>22.1531242452658</v>
       </c>
       <c r="L39" t="n">
-        <v>7.83493288457062</v>
+        <v>7.834932884570565</v>
       </c>
       <c r="M39" t="n">
-        <v>2.08526139466805e-27</v>
+        <v>1.368360215201906e-27</v>
       </c>
       <c r="N39" t="n">
-        <v>2.603324273232449e-13</v>
+        <v>2.235408250717334e-13</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.0005446000000119966</v>
+        <v>0.0002634000000227843</v>
       </c>
     </row>
     <row r="40">
@@ -2508,13 +2508,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>19.99999999999777</v>
+        <v>20.00000000000382</v>
       </c>
       <c r="G40" t="n">
-        <v>69.2591615130132</v>
+        <v>69.25916151301566</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31649415908557</v>
+        <v>13.31649415909043</v>
       </c>
       <c r="I40" t="n">
         <v>34.96648716718858</v>
@@ -2523,16 +2523,16 @@
         <v>28.11848681131468</v>
       </c>
       <c r="K40" t="n">
-        <v>34.9664871671883</v>
+        <v>34.96648716718909</v>
       </c>
       <c r="L40" t="n">
-        <v>28.11848681130914</v>
+        <v>28.11848681131854</v>
       </c>
       <c r="M40" t="n">
-        <v>1.56308425645397e-26</v>
+        <v>4.219382217016282e-26</v>
       </c>
       <c r="N40" t="n">
-        <v>7.658969468570125e-13</v>
+        <v>9.64569511551315e-13</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.0005563999999935731</v>
+        <v>0.0002470999999957257</v>
       </c>
     </row>
     <row r="41">
@@ -2560,13 +2560,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>19.99999999999757</v>
+        <v>19.99999999999525</v>
       </c>
       <c r="G41" t="n">
-        <v>98.44004810616347</v>
+        <v>98.44004810616332</v>
       </c>
       <c r="H41" t="n">
-        <v>12.57478825538932</v>
+        <v>12.57478825538742</v>
       </c>
       <c r="I41" t="n">
         <v>46.69997733810174</v>
@@ -2575,16 +2575,16 @@
         <v>22.11787085750909</v>
       </c>
       <c r="K41" t="n">
-        <v>46.69997733810142</v>
+        <v>46.69997733810111</v>
       </c>
       <c r="L41" t="n">
-        <v>22.1178708575061</v>
+        <v>22.11787085750312</v>
       </c>
       <c r="M41" t="n">
-        <v>1.936898937955841e-26</v>
+        <v>7.565259935310386e-26</v>
       </c>
       <c r="N41" t="n">
-        <v>6.981903812321973e-13</v>
+        <v>1.382391514492789e-12</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.0004358999999993785</v>
+        <v>0.0002317000000005009</v>
       </c>
     </row>
     <row r="42">
@@ -2612,13 +2612,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>20.00000000000025</v>
+        <v>20.00000000000058</v>
       </c>
       <c r="G42" t="n">
-        <v>73.38366505445035</v>
+        <v>73.38366505445218</v>
       </c>
       <c r="H42" t="n">
-        <v>3.664392481342451</v>
+        <v>3.664392481342496</v>
       </c>
       <c r="I42" t="n">
         <v>16.11028815977839</v>
@@ -2627,16 +2627,16 @@
         <v>19.40305890800094</v>
       </c>
       <c r="K42" t="n">
-        <v>16.11028815977844</v>
+        <v>16.11028815977852</v>
       </c>
       <c r="L42" t="n">
-        <v>19.40305890800228</v>
+        <v>19.40305890800251</v>
       </c>
       <c r="M42" t="n">
-        <v>6.040606106470922e-28</v>
+        <v>2.166054164705556e-27</v>
       </c>
       <c r="N42" t="n">
-        <v>2.46147641675277e-13</v>
+        <v>2.997314670068947e-13</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.0005406999999877371</v>
+        <v>0.0002441999999973632</v>
       </c>
     </row>
     <row r="43">
@@ -2664,13 +2664,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>20.00000000000016</v>
+        <v>19.99999999999963</v>
       </c>
       <c r="G43" t="n">
-        <v>45.1662522740889</v>
+        <v>45.16625227408706</v>
       </c>
       <c r="H43" t="n">
-        <v>3.553149848071442</v>
+        <v>3.553149848071392</v>
       </c>
       <c r="I43" t="n">
         <v>11.6234771877166</v>
@@ -2679,16 +2679,16 @@
         <v>20.81671725181581</v>
       </c>
       <c r="K43" t="n">
-        <v>11.62347718771664</v>
+        <v>11.62347718771654</v>
       </c>
       <c r="L43" t="n">
-        <v>20.81671725181564</v>
+        <v>20.81671725181515</v>
       </c>
       <c r="M43" t="n">
-        <v>2.749647273609813e-28</v>
+        <v>8.084663188419842e-28</v>
       </c>
       <c r="N43" t="n">
-        <v>9.953151717423238e-14</v>
+        <v>1.570237497610812e-13</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.0005696000000057211</v>
+        <v>0.0001969999999857919</v>
       </c>
     </row>
     <row r="44">
@@ -2716,13 +2716,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>19.99999999999312</v>
+        <v>19.99999999999584</v>
       </c>
       <c r="G44" t="n">
-        <v>67.41722139252346</v>
+        <v>67.41722139252398</v>
       </c>
       <c r="H44" t="n">
-        <v>14.40857167691279</v>
+        <v>14.40857167691531</v>
       </c>
       <c r="I44" t="n">
         <v>35.49886759486641</v>
@@ -2731,16 +2731,16 @@
         <v>29.50819163776045</v>
       </c>
       <c r="K44" t="n">
-        <v>35.49886759486564</v>
+        <v>35.49886759486593</v>
       </c>
       <c r="L44" t="n">
-        <v>29.50819163774853</v>
+        <v>29.50819163775323</v>
       </c>
       <c r="M44" t="n">
-        <v>1.425771557590558e-25</v>
+        <v>5.005226560247764e-26</v>
       </c>
       <c r="N44" t="n">
-        <v>1.986926402620377e-12</v>
+        <v>1.198725583056954e-12</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.0005899999999883221</v>
+        <v>0.0001951000000133263</v>
       </c>
     </row>
     <row r="45">
@@ -2768,13 +2768,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>20.00000000000018</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="G45" t="n">
-        <v>20.70982195016036</v>
+        <v>20.7098219501604</v>
       </c>
       <c r="H45" t="n">
-        <v>10.30879847135386</v>
+        <v>10.30879847135322</v>
       </c>
       <c r="I45" t="n">
         <v>10.84139862960262</v>
@@ -2783,16 +2783,16 @@
         <v>29.48104188665291</v>
       </c>
       <c r="K45" t="n">
-        <v>10.84139862960265</v>
+        <v>10.84139862960257</v>
       </c>
       <c r="L45" t="n">
-        <v>29.4810418866515</v>
+        <v>29.48104188665031</v>
       </c>
       <c r="M45" t="n">
-        <v>1.454269860675122e-28</v>
+        <v>1.23505214464002e-27</v>
       </c>
       <c r="N45" t="n">
-        <v>1.09809031613632e-13</v>
+        <v>3.003305808321139e-13</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.0005144999999942002</v>
+        <v>0.0002342999999882522</v>
       </c>
     </row>
     <row r="46">
@@ -2820,13 +2820,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>19.99999999999969</v>
+        <v>20.00000000000036</v>
       </c>
       <c r="G46" t="n">
-        <v>150.2715867598178</v>
+        <v>150.2715867598165</v>
       </c>
       <c r="H46" t="n">
-        <v>4.257553252438379</v>
+        <v>4.257553252438555</v>
       </c>
       <c r="I46" t="n">
         <v>15.96520424559259</v>
@@ -2835,16 +2835,16 @@
         <v>13.46641365931518</v>
       </c>
       <c r="K46" t="n">
-        <v>15.96520424559249</v>
+        <v>15.96520424559271</v>
       </c>
       <c r="L46" t="n">
-        <v>13.46641365931449</v>
+        <v>13.46641365931508</v>
       </c>
       <c r="M46" t="n">
-        <v>1.183075462582557e-27</v>
+        <v>1.426261700395453e-27</v>
       </c>
       <c r="N46" t="n">
-        <v>1.715107422280758e-13</v>
+        <v>1.211947907298321e-13</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.0003584999999901584</v>
+        <v>0.000404400000007854</v>
       </c>
     </row>
     <row r="47">
@@ -2872,13 +2872,13 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>20.00000000000006</v>
+        <v>20.0000000000003</v>
       </c>
       <c r="G47" t="n">
-        <v>178.0220724256077</v>
+        <v>178.022072425608</v>
       </c>
       <c r="H47" t="n">
-        <v>9.594536722136581</v>
+        <v>9.594536722136985</v>
       </c>
       <c r="I47" t="n">
         <v>14.9370660770169</v>
@@ -2887,16 +2887,16 @@
         <v>6.082586648846124</v>
       </c>
       <c r="K47" t="n">
-        <v>14.93706607701695</v>
+        <v>14.93706607701712</v>
       </c>
       <c r="L47" t="n">
-        <v>6.082586648846895</v>
+        <v>6.082586648846642</v>
       </c>
       <c r="M47" t="n">
-        <v>1.58057589116709e-27</v>
+        <v>4.150324596826722e-27</v>
       </c>
       <c r="N47" t="n">
-        <v>2.66622734096864e-13</v>
+        <v>2.72348398187854e-13</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.000469300000006001</v>
+        <v>0.0002303999999924145</v>
       </c>
     </row>
     <row r="48">
@@ -2924,13 +2924,13 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>19.99999999999658</v>
+        <v>20.00000000001477</v>
       </c>
       <c r="G48" t="n">
-        <v>141.0898231450364</v>
+        <v>141.0898231450288</v>
       </c>
       <c r="H48" t="n">
-        <v>10.61800447263041</v>
+        <v>10.61800447264285</v>
       </c>
       <c r="I48" t="n">
         <v>50.84770593025824</v>
@@ -2939,16 +2939,16 @@
         <v>11.82955794607099</v>
       </c>
       <c r="K48" t="n">
-        <v>50.84770593025742</v>
+        <v>50.84770593026145</v>
       </c>
       <c r="L48" t="n">
-        <v>11.82955794606918</v>
+        <v>11.82955794608229</v>
       </c>
       <c r="M48" t="n">
-        <v>7.984985108386069e-26</v>
+        <v>1.413501626932271e-24</v>
       </c>
       <c r="N48" t="n">
-        <v>1.047978964407727e-12</v>
+        <v>4.928868328424644e-12</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.0004618999999905782</v>
+        <v>0.0001942000000099142</v>
       </c>
     </row>
     <row r="49">
@@ -2976,13 +2976,13 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>20.00000000000058</v>
+        <v>20.00000000000017</v>
       </c>
       <c r="G49" t="n">
-        <v>20.42792494085717</v>
+        <v>20.42792494085721</v>
       </c>
       <c r="H49" t="n">
-        <v>14.69379713323801</v>
+        <v>14.69379713323727</v>
       </c>
       <c r="I49" t="n">
         <v>12.18983427447809</v>
@@ -2991,16 +2991,16 @@
         <v>34.68944772507457</v>
       </c>
       <c r="K49" t="n">
-        <v>12.18983427447816</v>
+        <v>12.18983427447811</v>
       </c>
       <c r="L49" t="n">
-        <v>34.68944772507704</v>
+        <v>34.68944772507577</v>
       </c>
       <c r="M49" t="n">
-        <v>1.149411808400263e-27</v>
+        <v>3.439078911263204e-28</v>
       </c>
       <c r="N49" t="n">
-        <v>2.368788432435665e-13</v>
+        <v>1.078306400391802e-13</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.0004986000000002377</v>
+        <v>0.000196199999976443</v>
       </c>
     </row>
     <row r="50">
@@ -3028,13 +3028,13 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>19.99999999999995</v>
+        <v>20.00000000000017</v>
       </c>
       <c r="G50" t="n">
-        <v>3.148248767607472</v>
+        <v>3.148248767607535</v>
       </c>
       <c r="H50" t="n">
-        <v>13.69887920616326</v>
+        <v>13.69887920616306</v>
       </c>
       <c r="I50" t="n">
         <v>3.510331044355261</v>
@@ -3046,13 +3046,13 @@
         <v>3.510331044355274</v>
       </c>
       <c r="L50" t="n">
-        <v>33.86101386425188</v>
+        <v>33.86101386425185</v>
       </c>
       <c r="M50" t="n">
-        <v>4.712911585521228e-29</v>
+        <v>7.32521115006728e-29</v>
       </c>
       <c r="N50" t="n">
-        <v>8.758186202040239e-14</v>
+        <v>6.555982024887044e-14</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.0003470000000049822</v>
+        <v>0.0002061000000139757</v>
       </c>
     </row>
     <row r="51">
@@ -3080,13 +3080,13 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>19.99999999999963</v>
+        <v>19.99999999999924</v>
       </c>
       <c r="G51" t="n">
-        <v>54.17360205406479</v>
+        <v>54.17360205406454</v>
       </c>
       <c r="H51" t="n">
-        <v>5.964741983541553</v>
+        <v>5.96474198354138</v>
       </c>
       <c r="I51" t="n">
         <v>17.9141781265068</v>
@@ -3095,16 +3095,16 @@
         <v>22.67245653586901</v>
       </c>
       <c r="K51" t="n">
-        <v>17.91417812650674</v>
+        <v>17.91417812650666</v>
       </c>
       <c r="L51" t="n">
-        <v>22.67245653586816</v>
+        <v>22.67245653586765</v>
       </c>
       <c r="M51" t="n">
-        <v>8.903363258133245e-28</v>
+        <v>3.245445572406646e-27</v>
       </c>
       <c r="N51" t="n">
-        <v>1.725794072374248e-13</v>
+        <v>3.022236515529848e-13</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.0004147000000074286</v>
+        <v>0.0002709999999979118</v>
       </c>
     </row>
     <row r="52">
@@ -3132,13 +3132,13 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>20.00000000000019</v>
+        <v>20.0000000000015</v>
       </c>
       <c r="G52" t="n">
-        <v>89.02829619684344</v>
+        <v>89.02829619684482</v>
       </c>
       <c r="H52" t="n">
-        <v>5.73699725339214</v>
+        <v>5.736997253392672</v>
       </c>
       <c r="I52" t="n">
         <v>24.7123806252271</v>
@@ -3147,16 +3147,16 @@
         <v>19.26468874930528</v>
       </c>
       <c r="K52" t="n">
-        <v>24.71238062522713</v>
+        <v>24.71238062522743</v>
       </c>
       <c r="L52" t="n">
-        <v>19.26468874930635</v>
+        <v>19.26468874930767</v>
       </c>
       <c r="M52" t="n">
-        <v>3.218245339827352e-28</v>
+        <v>1.305422647342689e-26</v>
       </c>
       <c r="N52" t="n">
-        <v>1.558537146497836e-13</v>
+        <v>5.94398905746509e-13</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.0003600999999946453</v>
+        <v>0.0002034000000037395</v>
       </c>
     </row>
     <row r="53">
@@ -3184,13 +3184,13 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>20.00000000000011</v>
+        <v>19.99999999999992</v>
       </c>
       <c r="G53" t="n">
-        <v>121.6316547906382</v>
+        <v>121.6316547906397</v>
       </c>
       <c r="H53" t="n">
-        <v>3.536546186435368</v>
+        <v>3.536546186435332</v>
       </c>
       <c r="I53" t="n">
         <v>17.51566640221833</v>
@@ -3199,16 +3199,16 @@
         <v>15.8948919808433</v>
       </c>
       <c r="K53" t="n">
-        <v>17.51566640221836</v>
+        <v>17.5156664022183</v>
       </c>
       <c r="L53" t="n">
-        <v>15.89489198084178</v>
+        <v>15.89489198084151</v>
       </c>
       <c r="M53" t="n">
-        <v>2.730795627267729e-28</v>
+        <v>8.48324085393821e-29</v>
       </c>
       <c r="N53" t="n">
-        <v>2.091099520816622e-13</v>
+        <v>2.163783287642448e-13</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.0005117999999981748</v>
+        <v>0.0001961000000108015</v>
       </c>
     </row>
     <row r="54">
@@ -3236,13 +3236,13 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>20.00000000000031</v>
+        <v>19.99999999999988</v>
       </c>
       <c r="G54" t="n">
-        <v>148.159861327764</v>
+        <v>148.1598613277628</v>
       </c>
       <c r="H54" t="n">
-        <v>3.313415778838606</v>
+        <v>3.313415778838371</v>
       </c>
       <c r="I54" t="n">
         <v>13.13409212102936</v>
@@ -3251,16 +3251,16 @@
         <v>14.38207027932934</v>
       </c>
       <c r="K54" t="n">
-        <v>13.13409212102946</v>
+        <v>13.13409212102931</v>
       </c>
       <c r="L54" t="n">
-        <v>14.38207027933153</v>
+        <v>14.38207027933137</v>
       </c>
       <c r="M54" t="n">
-        <v>1.190077502652474e-27</v>
+        <v>2.334911054083945e-28</v>
       </c>
       <c r="N54" t="n">
-        <v>4.676750487605666e-13</v>
+        <v>2.823785381851931e-13</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.0005714999999923975</v>
+        <v>0.0002009000000100514</v>
       </c>
     </row>
     <row r="55">
@@ -3288,13 +3288,13 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>19.9999999999925</v>
+        <v>19.99999999999763</v>
       </c>
       <c r="G55" t="n">
-        <v>152.3992332978296</v>
+        <v>152.3992332978258</v>
       </c>
       <c r="H55" t="n">
-        <v>9.733986483175887</v>
+        <v>9.733986483178974</v>
       </c>
       <c r="I55" t="n">
         <v>43.10728306886178</v>
@@ -3303,16 +3303,16 @@
         <v>9.632097422497353</v>
       </c>
       <c r="K55" t="n">
-        <v>43.10728306885962</v>
+        <v>43.10728306886108</v>
       </c>
       <c r="L55" t="n">
-        <v>9.632097422492823</v>
+        <v>9.632097422496074</v>
       </c>
       <c r="M55" t="n">
-        <v>5.326965588548875e-25</v>
+        <v>5.406578110870751e-26</v>
       </c>
       <c r="N55" t="n">
-        <v>2.622484550651089e-12</v>
+        <v>8.023870964182292e-13</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.0003600000000005821</v>
+        <v>0.0001878000000203883</v>
       </c>
     </row>
     <row r="56">
@@ -3340,13 +3340,13 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>19.99999999999926</v>
+        <v>20.00000000000279</v>
       </c>
       <c r="G56" t="n">
-        <v>75.63293408533993</v>
+        <v>75.6329340853392</v>
       </c>
       <c r="H56" t="n">
-        <v>7.358873963580553</v>
+        <v>7.358873963582598</v>
       </c>
       <c r="I56" t="n">
         <v>26.41857436802691</v>
@@ -3355,16 +3355,16 @@
         <v>21.857439245682</v>
       </c>
       <c r="K56" t="n">
-        <v>26.4185743680268</v>
+        <v>26.41857436802737</v>
       </c>
       <c r="L56" t="n">
-        <v>21.85743924567995</v>
+        <v>21.85743924568479</v>
       </c>
       <c r="M56" t="n">
-        <v>3.483245625550375e-27</v>
+        <v>3.929087061540683e-26</v>
       </c>
       <c r="N56" t="n">
-        <v>3.612199579149618e-13</v>
+        <v>8.631990143931087e-13</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.0003856999999953814</v>
+        <v>0.000263100000012173</v>
       </c>
     </row>
     <row r="57">
@@ -3392,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>20.00000000000011</v>
+        <v>20.00000000000012</v>
       </c>
       <c r="G57" t="n">
-        <v>16.75949160093463</v>
+        <v>16.75949160093436</v>
       </c>
       <c r="H57" t="n">
-        <v>14.65987103987719</v>
+        <v>14.65987103987787</v>
       </c>
       <c r="I57" t="n">
         <v>10.33697773787481</v>
@@ -3407,16 +3407,16 @@
         <v>34.79295383250428</v>
       </c>
       <c r="K57" t="n">
-        <v>10.33697773787482</v>
+        <v>10.33697773787483</v>
       </c>
       <c r="L57" t="n">
-        <v>34.79295383250513</v>
+        <v>34.79295383250598</v>
       </c>
       <c r="M57" t="n">
-        <v>2.676933780576057e-28</v>
+        <v>4.46514709073954e-28</v>
       </c>
       <c r="N57" t="n">
-        <v>9.065126998698777e-14</v>
+        <v>1.626817796319526e-13</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.0004916000000037002</v>
+        <v>0.0001929999999958909</v>
       </c>
     </row>
     <row r="58">
@@ -3444,13 +3444,13 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>19.99999999999973</v>
+        <v>20.00000000000015</v>
       </c>
       <c r="G58" t="n">
-        <v>177.1545330976639</v>
+        <v>177.1545330976637</v>
       </c>
       <c r="H58" t="n">
-        <v>7.000947192175659</v>
+        <v>7.000947192175938</v>
       </c>
       <c r="I58" t="n">
         <v>10.01126221134659</v>
@@ -3459,16 +3459,16 @@
         <v>9.131905031738382</v>
       </c>
       <c r="K58" t="n">
-        <v>10.01126221134646</v>
+        <v>10.01126221134667</v>
       </c>
       <c r="L58" t="n">
-        <v>9.13190503173899</v>
+        <v>9.131905031739082</v>
       </c>
       <c r="M58" t="n">
-        <v>1.475545290118332e-27</v>
+        <v>4.578256968792049e-28</v>
       </c>
       <c r="N58" t="n">
-        <v>2.072362120219453e-13</v>
+        <v>1.870997622337148e-13</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.0003597999999982449</v>
+        <v>0.0001857999999970161</v>
       </c>
     </row>
     <row r="59">
@@ -3496,13 +3496,13 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>20.00000000000002</v>
+        <v>20.00000000000015</v>
       </c>
       <c r="G59" t="n">
-        <v>15.72293572239155</v>
+        <v>15.72293572239128</v>
       </c>
       <c r="H59" t="n">
-        <v>5.765725194620736</v>
+        <v>5.765725194621115</v>
       </c>
       <c r="I59" t="n">
         <v>7.21865410269864</v>
@@ -3511,16 +3511,16 @@
         <v>24.23572292664682</v>
       </c>
       <c r="K59" t="n">
-        <v>7.21865410269864</v>
+        <v>7.21865410269869</v>
       </c>
       <c r="L59" t="n">
-        <v>24.23572292664698</v>
+        <v>24.23572292664756</v>
       </c>
       <c r="M59" t="n">
-        <v>1.83130278751682e-29</v>
+        <v>7.193249625672685e-28</v>
       </c>
       <c r="N59" t="n">
-        <v>1.170478981130642e-14</v>
+        <v>2.347704727201198e-13</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.00049640000000295</v>
+        <v>0.0001938000000052398</v>
       </c>
     </row>
     <row r="60">
@@ -3548,13 +3548,13 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>19.99999999999818</v>
+        <v>19.99999999999605</v>
       </c>
       <c r="G60" t="n">
-        <v>65.71900494408391</v>
+        <v>65.71900494408439</v>
       </c>
       <c r="H60" t="n">
-        <v>8.414470990719046</v>
+        <v>8.414470990717597</v>
       </c>
       <c r="I60" t="n">
         <v>25.72186802556637</v>
@@ -3563,16 +3563,16 @@
         <v>23.90445332822715</v>
       </c>
       <c r="K60" t="n">
-        <v>25.72186802556607</v>
+        <v>25.72186802556575</v>
       </c>
       <c r="L60" t="n">
-        <v>23.90445332822601</v>
+        <v>23.9044533282227</v>
       </c>
       <c r="M60" t="n">
-        <v>1.397930369035634e-26</v>
+        <v>7.195942718007269e-26</v>
       </c>
       <c r="N60" t="n">
-        <v>4.754558938840804e-13</v>
+        <v>1.209911725761472e-12</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.0005724999999898728</v>
+        <v>0.0001847999999995409</v>
       </c>
     </row>
     <row r="61">
@@ -3600,13 +3600,13 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>20.00000000000006</v>
+        <v>19.99999999999939</v>
       </c>
       <c r="G61" t="n">
-        <v>166.3263208033958</v>
+        <v>166.3263208033978</v>
       </c>
       <c r="H61" t="n">
-        <v>4.894446966417409</v>
+        <v>4.894446966417375</v>
       </c>
       <c r="I61" t="n">
         <v>12.36048824931865</v>
@@ -3615,16 +3615,16 @@
         <v>11.95385309927802</v>
       </c>
       <c r="K61" t="n">
-        <v>12.36048824931867</v>
+        <v>12.3604882493184</v>
       </c>
       <c r="L61" t="n">
-        <v>11.95385309927794</v>
+        <v>11.95385309927723</v>
       </c>
       <c r="M61" t="n">
-        <v>4.117738179578261e-28</v>
+        <v>5.60701824060297e-27</v>
       </c>
       <c r="N61" t="n">
-        <v>8.572980501160699e-14</v>
+        <v>2.655550253558708e-13</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.0005410999999924115</v>
+        <v>0.0002787000000239459</v>
       </c>
     </row>
     <row r="62">
@@ -3652,13 +3652,13 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>19.99999999999966</v>
+        <v>19.99999999999981</v>
       </c>
       <c r="G62" t="n">
-        <v>54.15719940839205</v>
+        <v>54.1571994083909</v>
       </c>
       <c r="H62" t="n">
-        <v>5.243349796102292</v>
+        <v>5.243349796102494</v>
       </c>
       <c r="I62" t="n">
         <v>16.57573316800831</v>
@@ -3667,16 +3667,16 @@
         <v>21.9814878807647</v>
       </c>
       <c r="K62" t="n">
-        <v>16.57573316800825</v>
+        <v>16.57573316800827</v>
       </c>
       <c r="L62" t="n">
-        <v>21.98148788076441</v>
+        <v>21.98148788076482</v>
       </c>
       <c r="M62" t="n">
-        <v>1.051383247421421e-27</v>
+        <v>2.143701498328513e-28</v>
       </c>
       <c r="N62" t="n">
-        <v>1.700783215664034e-13</v>
+        <v>4.824678044197236e-14</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.000533300000000736</v>
+        <v>0.0002028000000109387</v>
       </c>
     </row>
     <row r="63">
@@ -3704,13 +3704,13 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>20.00000000000023</v>
+        <v>20.00000000000068</v>
       </c>
       <c r="G63" t="n">
-        <v>148.4045056643905</v>
+        <v>148.4045056643898</v>
       </c>
       <c r="H63" t="n">
-        <v>5.176196789966487</v>
+        <v>5.176196789966636</v>
       </c>
       <c r="I63" t="n">
         <v>20.09731597443985</v>
@@ -3719,16 +3719,16 @@
         <v>12.87701081010599</v>
       </c>
       <c r="K63" t="n">
-        <v>20.09731597443994</v>
+        <v>20.09731597444006</v>
       </c>
       <c r="L63" t="n">
-        <v>12.87701081010655</v>
+        <v>12.87701081010692</v>
       </c>
       <c r="M63" t="n">
-        <v>6.705799913113062e-28</v>
+        <v>5.053857075079505e-27</v>
       </c>
       <c r="N63" t="n">
-        <v>1.424987868471769e-13</v>
+        <v>3.147383603036184e-13</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.0004431999999923164</v>
+        <v>0.0001856999999745312</v>
       </c>
     </row>
     <row r="64">
@@ -3756,13 +3756,13 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>20.00000000000004</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="G64" t="n">
-        <v>6.075847876177531</v>
+        <v>6.075847876177607</v>
       </c>
       <c r="H64" t="n">
-        <v>8.869290095587028</v>
+        <v>8.869290095586933</v>
       </c>
       <c r="I64" t="n">
         <v>4.695261347669589</v>
@@ -3771,16 +3771,16 @@
         <v>28.06116813307842</v>
       </c>
       <c r="K64" t="n">
-        <v>4.695261347669589</v>
+        <v>4.695261347669602</v>
       </c>
       <c r="L64" t="n">
-        <v>28.06116813307817</v>
+        <v>28.06116813307816</v>
       </c>
       <c r="M64" t="n">
-        <v>2.558437717854381e-29</v>
+        <v>6.409559756308869e-29</v>
       </c>
       <c r="N64" t="n">
-        <v>1.919718917312411e-14</v>
+        <v>4.170032722072154e-14</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.0005859999999984211</v>
+        <v>0.000196199999976443</v>
       </c>
     </row>
     <row r="65">
@@ -3808,13 +3808,13 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>20.00000000000104</v>
+        <v>19.99999999999967</v>
       </c>
       <c r="G65" t="n">
-        <v>99.70938405010632</v>
+        <v>99.70938405010683</v>
       </c>
       <c r="H65" t="n">
-        <v>7.754974724464942</v>
+        <v>7.754974724464159</v>
       </c>
       <c r="I65" t="n">
         <v>33.18633892201698</v>
@@ -3823,16 +3823,16 @@
         <v>18.89625465573057</v>
       </c>
       <c r="K65" t="n">
-        <v>33.18633892201722</v>
+        <v>33.18633892201699</v>
       </c>
       <c r="L65" t="n">
-        <v>18.89625465573032</v>
+        <v>18.89625465572873</v>
       </c>
       <c r="M65" t="n">
-        <v>6.263796133699535e-27</v>
+        <v>2.479597439759447e-27</v>
       </c>
       <c r="N65" t="n">
-        <v>2.72621229790312e-13</v>
+        <v>2.727982479958246e-13</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.0006001999999938334</v>
+        <v>0.0001838999999961288</v>
       </c>
     </row>
     <row r="66">
@@ -3860,13 +3860,13 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>19.99999999999868</v>
+        <v>20.00000000000007</v>
       </c>
       <c r="G66" t="n">
-        <v>68.23773457807768</v>
+        <v>68.23773457807798</v>
       </c>
       <c r="H66" t="n">
-        <v>9.805178006154595</v>
+        <v>9.80517800615554</v>
       </c>
       <c r="I66" t="n">
         <v>29.08874271726011</v>
@@ -3875,16 +3875,16 @@
         <v>24.88481197061157</v>
       </c>
       <c r="K66" t="n">
-        <v>29.0887427172599</v>
+        <v>29.0887427172601</v>
       </c>
       <c r="L66" t="n">
-        <v>24.88481197061069</v>
+        <v>24.88481197061274</v>
       </c>
       <c r="M66" t="n">
-        <v>6.567105657882008e-27</v>
+        <v>8.305496759855694e-28</v>
       </c>
       <c r="N66" t="n">
-        <v>3.367714651776667e-13</v>
+        <v>1.376330737739789e-13</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.0005793999999923471</v>
+        <v>0.0004516999999850668</v>
       </c>
     </row>
     <row r="67">
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>20.00000000000004</v>
+        <v>20.00000000000008</v>
       </c>
       <c r="G67" t="n">
-        <v>39.35610902649543</v>
+        <v>39.35610902649938</v>
       </c>
       <c r="H67" t="n">
-        <v>3.376832634031167</v>
+        <v>3.376832634030758</v>
       </c>
       <c r="I67" t="n">
         <v>10.3312492425286</v>
@@ -3927,16 +3927,16 @@
         <v>20.85499145199956</v>
       </c>
       <c r="K67" t="n">
-        <v>10.33124924252863</v>
+        <v>10.33124924252861</v>
       </c>
       <c r="L67" t="n">
-        <v>20.8549914519981</v>
+        <v>20.85499145199758</v>
       </c>
       <c r="M67" t="n">
-        <v>3.697615775383225e-28</v>
+        <v>3.805339468766568e-28</v>
       </c>
       <c r="N67" t="n">
-        <v>3.136157726635036e-13</v>
+        <v>3.694680090391197e-13</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.0005258000000054608</v>
+        <v>0.0001997999999900912</v>
       </c>
     </row>
     <row r="68">
@@ -3964,13 +3964,13 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>20.00000000000042</v>
+        <v>19.99999999999999</v>
       </c>
       <c r="G68" t="n">
-        <v>27.77176406363093</v>
+        <v>27.7717640636309</v>
       </c>
       <c r="H68" t="n">
-        <v>4.604394728400749</v>
+        <v>4.604394728400467</v>
       </c>
       <c r="I68" t="n">
         <v>9.544606449506214</v>
@@ -3979,16 +3979,16 @@
         <v>22.58510882584286</v>
       </c>
       <c r="K68" t="n">
-        <v>9.544606449506302</v>
+        <v>9.544606449506201</v>
       </c>
       <c r="L68" t="n">
-        <v>22.58510882584222</v>
+        <v>22.58510882584148</v>
       </c>
       <c r="M68" t="n">
-        <v>8.450923745923208e-28</v>
+        <v>5.846703458380906e-28</v>
       </c>
       <c r="N68" t="n">
-        <v>1.233673002335506e-13</v>
+        <v>3.087439548425713e-13</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.0003398000000061074</v>
+        <v>0.0001911000000234253</v>
       </c>
     </row>
     <row r="69">
@@ -4016,13 +4016,13 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>19.99999999999237</v>
+        <v>19.99999999999695</v>
       </c>
       <c r="G69" t="n">
-        <v>98.25325738829522</v>
+        <v>98.25325738829501</v>
       </c>
       <c r="H69" t="n">
-        <v>13.30627932708986</v>
+        <v>13.30627932709385</v>
       </c>
       <c r="I69" t="n">
         <v>48.35751430066835</v>
@@ -4031,16 +4031,16 @@
         <v>22.71174981430071</v>
       </c>
       <c r="K69" t="n">
-        <v>48.3575143006674</v>
+        <v>48.35751430066788</v>
       </c>
       <c r="L69" t="n">
-        <v>22.71174981429062</v>
+        <v>22.71174981429679</v>
       </c>
       <c r="M69" t="n">
-        <v>1.824757226597614e-25</v>
+        <v>2.947508767431668e-26</v>
       </c>
       <c r="N69" t="n">
-        <v>2.215636040246151e-12</v>
+        <v>8.922414326370636e-13</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.0006917000000044027</v>
+        <v>0.000182600000016464</v>
       </c>
     </row>
     <row r="70">
@@ -4068,13 +4068,13 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>19.99999999999987</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="G70" t="n">
-        <v>46.68686459072156</v>
+        <v>46.68686459071819</v>
       </c>
       <c r="H70" t="n">
-        <v>3.520332613942596</v>
+        <v>3.520332613942831</v>
       </c>
       <c r="I70" t="n">
         <v>11.81939003856421</v>
@@ -4083,16 +4083,16 @@
         <v>20.72083320136014</v>
       </c>
       <c r="K70" t="n">
-        <v>11.81939003856418</v>
+        <v>11.81939003856414</v>
       </c>
       <c r="L70" t="n">
-        <v>20.72083320136161</v>
+        <v>20.72083320136183</v>
       </c>
       <c r="M70" t="n">
-        <v>5.580087317257134e-28</v>
+        <v>4.925665879953329e-28</v>
       </c>
       <c r="N70" t="n">
-        <v>3.160035197352433e-13</v>
+        <v>2.108879980981062e-13</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.0005986000000035574</v>
+        <v>0.0001852000000042153</v>
       </c>
     </row>
     <row r="71">
@@ -4120,13 +4120,13 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>19.99999999999952</v>
+        <v>19.99999999999749</v>
       </c>
       <c r="G71" t="n">
-        <v>53.32484910103788</v>
+        <v>53.3248491010375</v>
       </c>
       <c r="H71" t="n">
-        <v>12.70881258807953</v>
+        <v>12.70881258807775</v>
       </c>
       <c r="I71" t="n">
         <v>26.8338317910883</v>
@@ -4135,16 +4135,16 @@
         <v>29.68943618653344</v>
       </c>
       <c r="K71" t="n">
-        <v>26.83383179108825</v>
+        <v>26.833831791088</v>
       </c>
       <c r="L71" t="n">
-        <v>29.68943618653322</v>
+        <v>29.68943618652955</v>
       </c>
       <c r="M71" t="n">
-        <v>8.364744791216532e-28</v>
+        <v>2.358314026471476e-26</v>
       </c>
       <c r="N71" t="n">
-        <v>1.084136048064631e-13</v>
+        <v>7.374020356584294e-13</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.0006101000000029444</v>
+        <v>0.0004663999999934276</v>
       </c>
     </row>
     <row r="72">
@@ -4172,13 +4172,13 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>20.00000000001133</v>
+        <v>20.00000000000223</v>
       </c>
       <c r="G72" t="n">
-        <v>166.9464969514064</v>
+        <v>166.9464969514112</v>
       </c>
       <c r="H72" t="n">
-        <v>13.4691155329196</v>
+        <v>13.46911553291234</v>
       </c>
       <c r="I72" t="n">
         <v>71.23042357909056</v>
@@ -4187,16 +4187,16 @@
         <v>5.091810049838018</v>
       </c>
       <c r="K72" t="n">
-        <v>71.23042357909284</v>
+        <v>71.2304235790908</v>
       </c>
       <c r="L72" t="n">
-        <v>5.091810049842025</v>
+        <v>5.091810049838617</v>
       </c>
       <c r="M72" t="n">
-        <v>1.171679995837136e-24</v>
+        <v>3.538605504853158e-26</v>
       </c>
       <c r="N72" t="n">
-        <v>3.70659046404719e-12</v>
+        <v>6.126093501640366e-13</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.0006135000000000446</v>
+        <v>0.0001972000000023399</v>
       </c>
     </row>
     <row r="73">
@@ -4224,13 +4224,13 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>19.9999999999994</v>
+        <v>20.00000000000084</v>
       </c>
       <c r="G73" t="n">
-        <v>33.40354946733654</v>
+        <v>33.40354946733671</v>
       </c>
       <c r="H73" t="n">
-        <v>7.639191636504563</v>
+        <v>7.63919163650564</v>
       </c>
       <c r="I73" t="n">
         <v>13.94596386491522</v>
@@ -4239,16 +4239,16 @@
         <v>25.79680087522651</v>
       </c>
       <c r="K73" t="n">
-        <v>13.94596386491512</v>
+        <v>13.94596386491536</v>
       </c>
       <c r="L73" t="n">
-        <v>25.79680087522535</v>
+        <v>25.79680087522796</v>
       </c>
       <c r="M73" t="n">
-        <v>1.625550533154636e-27</v>
+        <v>5.536189912203422e-27</v>
       </c>
       <c r="N73" t="n">
-        <v>2.074369270715119e-13</v>
+        <v>4.003024329689787e-13</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.0005199000000004617</v>
+        <v>0.0002245999999956894</v>
       </c>
     </row>
     <row r="74">
@@ -4276,13 +4276,13 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>20.00000000000043</v>
+        <v>20.00000000000092</v>
       </c>
       <c r="G74" t="n">
-        <v>19.21287640595596</v>
+        <v>19.212876405956</v>
       </c>
       <c r="H74" t="n">
-        <v>11.21211159934486</v>
+        <v>11.21211159934552</v>
       </c>
       <c r="I74" t="n">
         <v>10.53944732398951</v>
@@ -4291,16 +4291,16 @@
         <v>30.60511931178456</v>
       </c>
       <c r="K74" t="n">
-        <v>10.53944732398959</v>
+        <v>10.53944732398967</v>
       </c>
       <c r="L74" t="n">
-        <v>30.60511931178694</v>
+        <v>30.6051193117882</v>
       </c>
       <c r="M74" t="n">
-        <v>1.515672365903627e-27</v>
+        <v>6.52401618052867e-27</v>
       </c>
       <c r="N74" t="n">
-        <v>2.877101144622288e-13</v>
+        <v>5.178631243624735e-13</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.0004728999999912276</v>
+        <v>0.0003547999999966578</v>
       </c>
     </row>
     <row r="75">
@@ -4328,13 +4328,13 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>20.00000000000173</v>
+        <v>19.99999999999971</v>
       </c>
       <c r="G75" t="n">
-        <v>115.6841848414945</v>
+        <v>115.6841848414941</v>
       </c>
       <c r="H75" t="n">
-        <v>9.46345117162846</v>
+        <v>9.463451171627176</v>
       </c>
       <c r="I75" t="n">
         <v>42.46365114585801</v>
@@ -4343,16 +4343,16 @@
         <v>16.89259938730791</v>
       </c>
       <c r="K75" t="n">
-        <v>42.46365114585837</v>
+        <v>42.46365114585792</v>
       </c>
       <c r="L75" t="n">
-        <v>16.89259938730978</v>
+        <v>16.89259938730791</v>
       </c>
       <c r="M75" t="n">
-        <v>1.590486470958358e-26</v>
+        <v>6.384648652213972e-28</v>
       </c>
       <c r="N75" t="n">
-        <v>5.727862452974807e-13</v>
+        <v>7.27210202571891e-14</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.000357500000006894</v>
+        <v>0.0002185000000167747</v>
       </c>
     </row>
     <row r="76">
@@ -4380,13 +4380,13 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>19.99999999999867</v>
+        <v>19.99999999999973</v>
       </c>
       <c r="G76" t="n">
-        <v>36.39641281744286</v>
+        <v>36.39641281744359</v>
       </c>
       <c r="H76" t="n">
-        <v>12.41457124932567</v>
+        <v>12.41457124932635</v>
       </c>
       <c r="I76" t="n">
         <v>18.81757901229481</v>
@@ -4395,16 +4395,16 @@
         <v>31.03383242832522</v>
       </c>
       <c r="K76" t="n">
-        <v>18.81757901229463</v>
+        <v>18.81757901229479</v>
       </c>
       <c r="L76" t="n">
-        <v>31.03383242832348</v>
+        <v>31.03383242832522</v>
       </c>
       <c r="M76" t="n">
-        <v>6.347887941846906e-27</v>
+        <v>7.174397979330599e-28</v>
       </c>
       <c r="N76" t="n">
-        <v>3.635093006906241e-13</v>
+        <v>8.649395573948202e-14</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.0003406999999953086</v>
+        <v>0.0002376999999853524</v>
       </c>
     </row>
     <row r="77">
@@ -4432,13 +4432,13 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>20.00000000000058</v>
+        <v>20.0000000000007</v>
       </c>
       <c r="G77" t="n">
-        <v>102.4092396214643</v>
+        <v>102.4092396214642</v>
       </c>
       <c r="H77" t="n">
-        <v>3.791570731073503</v>
+        <v>3.791570731073543</v>
       </c>
       <c r="I77" t="n">
         <v>18.89077154030081</v>
@@ -4447,16 +4447,16 @@
         <v>17.33986823530514</v>
       </c>
       <c r="K77" t="n">
-        <v>18.89077154030094</v>
+        <v>18.89077154030098</v>
       </c>
       <c r="L77" t="n">
-        <v>17.33986823530531</v>
+        <v>17.33986823530543</v>
       </c>
       <c r="M77" t="n">
-        <v>2.459870538408622e-27</v>
+        <v>3.593662411268301e-27</v>
       </c>
       <c r="N77" t="n">
-        <v>1.749800402345303e-13</v>
+        <v>2.249464927758605e-13</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.0005398999999925991</v>
+        <v>0.0001972000000023399</v>
       </c>
     </row>
     <row r="78">
@@ -4484,13 +4484,13 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>20.00000000000171</v>
+        <v>20.00000000000108</v>
       </c>
       <c r="G78" t="n">
-        <v>55.94936395614474</v>
+        <v>55.94936395614428</v>
       </c>
       <c r="H78" t="n">
-        <v>12.82784664862752</v>
+        <v>12.8278466486271</v>
       </c>
       <c r="I78" t="n">
         <v>28.16915530266995</v>
@@ -4499,16 +4499,16 @@
         <v>29.4964254447366</v>
       </c>
       <c r="K78" t="n">
-        <v>28.16915530267017</v>
+        <v>28.16915530267008</v>
       </c>
       <c r="L78" t="n">
-        <v>29.49642544473972</v>
+        <v>29.49642544473878</v>
       </c>
       <c r="M78" t="n">
-        <v>9.122850283401806e-27</v>
+        <v>3.996818333755459e-27</v>
       </c>
       <c r="N78" t="n">
-        <v>5.105571403654233e-13</v>
+        <v>3.346294324323984e-13</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.0003146999999898981</v>
+        <v>0.0001862999999957538</v>
       </c>
     </row>
     <row r="79">
@@ -4536,13 +4536,13 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>19.99999999999809</v>
+        <v>19.99999999999694</v>
       </c>
       <c r="G79" t="n">
-        <v>165.4396257238542</v>
+        <v>165.4396257238554</v>
       </c>
       <c r="H79" t="n">
-        <v>10.70634719908511</v>
+        <v>10.70634719908443</v>
       </c>
       <c r="I79" t="n">
         <v>41.64356557784242</v>
@@ -4551,16 +4551,16 @@
         <v>6.622093328573639</v>
       </c>
       <c r="K79" t="n">
-        <v>41.64356557784171</v>
+        <v>41.64356557784133</v>
       </c>
       <c r="L79" t="n">
-        <v>6.62209332857291</v>
+        <v>6.622093328572302</v>
       </c>
       <c r="M79" t="n">
-        <v>5.093997616326475e-26</v>
+        <v>1.261049238218839e-25</v>
       </c>
       <c r="N79" t="n">
-        <v>6.699741314251906e-13</v>
+        <v>1.102117207507259e-12</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.000354999999998995</v>
+        <v>0.0002046999999834043</v>
       </c>
     </row>
     <row r="80">
@@ -4588,13 +4588,13 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>19.99999999999991</v>
+        <v>19.99999999999985</v>
       </c>
       <c r="G80" t="n">
-        <v>8.672620950042674</v>
+        <v>8.672620950042559</v>
       </c>
       <c r="H80" t="n">
-        <v>11.17155616641286</v>
+        <v>11.1715561664134</v>
       </c>
       <c r="I80" t="n">
         <v>5.948030209996284</v>
@@ -4603,16 +4603,16 @@
         <v>30.80205203138767</v>
       </c>
       <c r="K80" t="n">
-        <v>5.948030209996284</v>
+        <v>5.948030209996309</v>
       </c>
       <c r="L80" t="n">
-        <v>30.80205203138974</v>
+        <v>30.80205203139033</v>
       </c>
       <c r="M80" t="n">
-        <v>1.268446489588856e-28</v>
+        <v>9.735528789519565e-28</v>
       </c>
       <c r="N80" t="n">
-        <v>1.707590833764499e-13</v>
+        <v>3.33462862081765e-13</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.0005774000000116075</v>
+        <v>0.0001886000000013155</v>
       </c>
     </row>
     <row r="81">
@@ -4640,13 +4640,13 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>20.00000000000075</v>
+        <v>19.99999999999261</v>
       </c>
       <c r="G81" t="n">
-        <v>90.12026274126889</v>
+        <v>90.12026274127001</v>
       </c>
       <c r="H81" t="n">
-        <v>8.616809111377821</v>
+        <v>8.616809111372762</v>
       </c>
       <c r="I81" t="n">
         <v>33.54355347503301</v>
@@ -4655,16 +4655,16 @@
         <v>20.83100353070742</v>
       </c>
       <c r="K81" t="n">
-        <v>33.54355347503316</v>
+        <v>33.54355347503189</v>
       </c>
       <c r="L81" t="n">
-        <v>20.83100353070815</v>
+        <v>20.83100353069785</v>
       </c>
       <c r="M81" t="n">
-        <v>2.595871701305092e-27</v>
+        <v>2.639453341282575e-25</v>
       </c>
       <c r="N81" t="n">
-        <v>2.28201327561046e-13</v>
+        <v>2.42628658151342e-12</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.0003475000000037198</v>
+        <v>0.0002323999999873649</v>
       </c>
     </row>
     <row r="82">
@@ -4692,13 +4692,13 @@
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>19.99999999999959</v>
+        <v>19.99999999999448</v>
       </c>
       <c r="G82" t="n">
-        <v>93.94482897004593</v>
+        <v>93.94482897004497</v>
       </c>
       <c r="H82" t="n">
-        <v>11.39287640417565</v>
+        <v>11.39287640417187</v>
       </c>
       <c r="I82" t="n">
         <v>42.00785586126269</v>
@@ -4707,16 +4707,16 @@
         <v>22.12910312982312</v>
       </c>
       <c r="K82" t="n">
-        <v>42.00785586126264</v>
+        <v>42.0078558612619</v>
       </c>
       <c r="L82" t="n">
-        <v>22.12910312982378</v>
+        <v>22.12910312981737</v>
       </c>
       <c r="M82" t="n">
-        <v>7.204021995011018e-28</v>
+        <v>1.103209789581231e-25</v>
       </c>
       <c r="N82" t="n">
-        <v>1.350520216061406e-13</v>
+        <v>1.553371527066978e-12</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.0005345999999946116</v>
+        <v>0.0001961000000108015</v>
       </c>
     </row>
     <row r="83">
@@ -4744,13 +4744,13 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>19.99999999999946</v>
+        <v>20.00000000000217</v>
       </c>
       <c r="G83" t="n">
-        <v>63.9754412049423</v>
+        <v>63.97544120494249</v>
       </c>
       <c r="H83" t="n">
-        <v>7.090186520271344</v>
+        <v>7.090186520272868</v>
       </c>
       <c r="I83" t="n">
         <v>22.66003708688305</v>
@@ -4759,16 +4759,16 @@
         <v>22.88308841551866</v>
       </c>
       <c r="K83" t="n">
-        <v>22.66003708688294</v>
+        <v>22.66003708688341</v>
       </c>
       <c r="L83" t="n">
-        <v>22.88308841551784</v>
+        <v>22.8830884155217</v>
       </c>
       <c r="M83" t="n">
-        <v>1.442689563636412e-27</v>
+        <v>2.472097177607632e-26</v>
       </c>
       <c r="N83" t="n">
-        <v>1.923835475918608e-13</v>
+        <v>7.560600119773846e-13</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.0005106000000125732</v>
+        <v>0.0001874999999813554</v>
       </c>
     </row>
     <row r="84">
@@ -4796,13 +4796,13 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>20.00000000000282</v>
+        <v>19.99999999999801</v>
       </c>
       <c r="G84" t="n">
-        <v>49.54062056424111</v>
+        <v>49.54062056423961</v>
       </c>
       <c r="H84" t="n">
-        <v>10.6707691311055</v>
+        <v>10.67076913110196</v>
       </c>
       <c r="I84" t="n">
         <v>23.0138177326087</v>
@@ -4811,16 +4811,16 @@
         <v>27.91456839119444</v>
       </c>
       <c r="K84" t="n">
-        <v>23.01381773260907</v>
+        <v>23.0138177326084</v>
       </c>
       <c r="L84" t="n">
-        <v>27.91456839119968</v>
+        <v>27.9145683911916</v>
       </c>
       <c r="M84" t="n">
-        <v>3.57718068618065e-26</v>
+        <v>1.3962067899415e-26</v>
       </c>
       <c r="N84" t="n">
-        <v>9.448170308172128e-13</v>
+        <v>5.688897443169629e-13</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.0005110000000030368</v>
+        <v>0.0001849999999876673</v>
       </c>
     </row>
     <row r="85">
@@ -4848,13 +4848,13 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>20.00000000000022</v>
+        <v>19.99999999999975</v>
       </c>
       <c r="G85" t="n">
-        <v>46.26763687892515</v>
+        <v>46.26763687892458</v>
       </c>
       <c r="H85" t="n">
-        <v>11.20545099685308</v>
+        <v>11.20545099685289</v>
       </c>
       <c r="I85" t="n">
         <v>22.19829023105142</v>
@@ -4863,16 +4863,16 @@
         <v>28.81480572929693</v>
       </c>
       <c r="K85" t="n">
-        <v>22.19829023105144</v>
+        <v>22.19829023105137</v>
       </c>
       <c r="L85" t="n">
-        <v>28.81480572929756</v>
+        <v>28.81480572929697</v>
       </c>
       <c r="M85" t="n">
-        <v>3.005491045395251e-28</v>
+        <v>6.056764660478423e-28</v>
       </c>
       <c r="N85" t="n">
-        <v>8.99550032884287e-14</v>
+        <v>3.666815820974203e-14</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.0003387000000003582</v>
+        <v>0.0001847000000054777</v>
       </c>
     </row>
     <row r="86">
@@ -4900,13 +4900,13 @@
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>19.99999999999998</v>
+        <v>19.99999999999999</v>
       </c>
       <c r="G86" t="n">
-        <v>8.287378853667372</v>
+        <v>8.287378853667461</v>
       </c>
       <c r="H86" t="n">
-        <v>7.442907793387215</v>
+        <v>7.442907793386774</v>
       </c>
       <c r="I86" t="n">
         <v>5.354793513653481</v>
@@ -4915,16 +4915,16 @@
         <v>26.33679661486171</v>
       </c>
       <c r="K86" t="n">
-        <v>5.354793513653468</v>
+        <v>5.354793513653442</v>
       </c>
       <c r="L86" t="n">
-        <v>26.33679661486169</v>
+        <v>26.33679661486117</v>
       </c>
       <c r="M86" t="n">
-        <v>1.723579094133478e-29</v>
+        <v>4.171600026269933e-28</v>
       </c>
       <c r="N86" t="n">
-        <v>1.041274976955336e-14</v>
+        <v>1.823921798948602e-13</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.000304900000003272</v>
+        <v>0.0002439000000151736</v>
       </c>
     </row>
     <row r="87">
@@ -4952,13 +4952,13 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>20.00000000000054</v>
+        <v>19.9999999999962</v>
       </c>
       <c r="G87" t="n">
-        <v>111.6672866195853</v>
+        <v>111.667286619586</v>
       </c>
       <c r="H87" t="n">
-        <v>9.107436823745244</v>
+        <v>9.107436823742525</v>
       </c>
       <c r="I87" t="n">
         <v>40.31703926566036</v>
@@ -4967,16 +4967,16 @@
         <v>17.50678391245108</v>
       </c>
       <c r="K87" t="n">
-        <v>40.31703926566041</v>
+        <v>40.31703926565961</v>
       </c>
       <c r="L87" t="n">
-        <v>17.50678391245125</v>
+        <v>17.50678391244677</v>
       </c>
       <c r="M87" t="n">
-        <v>2.837105447175414e-27</v>
+        <v>7.315798792357912e-26</v>
       </c>
       <c r="N87" t="n">
-        <v>1.496641178229328e-13</v>
+        <v>1.245395503124601e-12</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.0002938999999884118</v>
+        <v>0.0001953999999955158</v>
       </c>
     </row>
     <row r="88">
@@ -5004,13 +5004,13 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>19.9999999999999</v>
+        <v>19.99999999999951</v>
       </c>
       <c r="G88" t="n">
-        <v>36.4692516532001</v>
+        <v>36.46925165319927</v>
       </c>
       <c r="H88" t="n">
-        <v>5.485117248731655</v>
+        <v>5.485117248731598</v>
       </c>
       <c r="I88" t="n">
         <v>12.63355933516389</v>
@@ -5019,16 +5019,16 @@
         <v>23.239492303837</v>
       </c>
       <c r="K88" t="n">
-        <v>12.63355933516387</v>
+        <v>12.63355933516379</v>
       </c>
       <c r="L88" t="n">
-        <v>23.2394923038355</v>
+        <v>23.2394923038351</v>
       </c>
       <c r="M88" t="n">
-        <v>9.425823171042456e-29</v>
+        <v>1.200849871990809e-27</v>
       </c>
       <c r="N88" t="n">
-        <v>1.303805169101766e-13</v>
+        <v>2.272566181008011e-13</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.0003365000000030705</v>
+        <v>0.0001854999999864049</v>
       </c>
     </row>
     <row r="89">
@@ -5056,13 +5056,13 @@
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>19.99999999999222</v>
+        <v>19.99999999999552</v>
       </c>
       <c r="G89" t="n">
-        <v>118.1275533419322</v>
+        <v>118.1275533419318</v>
       </c>
       <c r="H89" t="n">
-        <v>14.4588165229517</v>
+        <v>14.45881652295472</v>
       </c>
       <c r="I89" t="n">
         <v>60.8050478197775</v>
@@ -5071,16 +5071,16 @@
         <v>18.86895112245551</v>
       </c>
       <c r="K89" t="n">
-        <v>60.80504781977653</v>
+        <v>60.80504781977687</v>
       </c>
       <c r="L89" t="n">
-        <v>18.86895112244698</v>
+        <v>18.86895112245065</v>
       </c>
       <c r="M89" t="n">
-        <v>1.777322444762427e-25</v>
+        <v>5.995873842793489e-26</v>
       </c>
       <c r="N89" t="n">
-        <v>2.210068230075056e-12</v>
+        <v>1.287835538140221e-12</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.0004677000000015141</v>
+        <v>0.0001805999999930918</v>
       </c>
     </row>
     <row r="90">
@@ -5108,13 +5108,13 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>19.99999999999937</v>
+        <v>20.00000000000155</v>
       </c>
       <c r="G90" t="n">
-        <v>116.5591888835445</v>
+        <v>116.5591888835436</v>
       </c>
       <c r="H90" t="n">
-        <v>9.085796258556568</v>
+        <v>9.085796258557933</v>
       </c>
       <c r="I90" t="n">
         <v>41.12816029319166</v>
@@ -5123,16 +5123,16 @@
         <v>16.60650249154164</v>
       </c>
       <c r="K90" t="n">
-        <v>41.12816029319156</v>
+        <v>41.12816029319192</v>
       </c>
       <c r="L90" t="n">
-        <v>16.60650249154064</v>
+        <v>16.60650249154287</v>
       </c>
       <c r="M90" t="n">
-        <v>2.173796805167484e-27</v>
+        <v>1.288584087520705e-26</v>
       </c>
       <c r="N90" t="n">
-        <v>2.437389106403656e-13</v>
+        <v>4.720865114300995e-13</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.0003633999999976822</v>
+        <v>0.0001847000000054777</v>
       </c>
     </row>
     <row r="91">
@@ -5160,13 +5160,13 @@
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>20.00000000000037</v>
+        <v>20.00000000000205</v>
       </c>
       <c r="G91" t="n">
-        <v>89.94497768439035</v>
+        <v>89.94497768438923</v>
       </c>
       <c r="H91" t="n">
-        <v>6.071245611740203</v>
+        <v>6.071245611741041</v>
       </c>
       <c r="I91" t="n">
         <v>25.93067114680046</v>
@@ -5175,16 +5175,16 @@
         <v>19.33745493689766</v>
       </c>
       <c r="K91" t="n">
-        <v>25.93067114680053</v>
+        <v>25.93067114680085</v>
       </c>
       <c r="L91" t="n">
-        <v>19.33745493689917</v>
+        <v>19.33745493690125</v>
       </c>
       <c r="M91" t="n">
-        <v>8.057732265074006e-28</v>
+        <v>2.471262318983911e-26</v>
       </c>
       <c r="N91" t="n">
-        <v>2.232748409982996e-13</v>
+        <v>8.431731892275051e-13</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.0005666999999931477</v>
+        <v>0.0002549999999814645</v>
       </c>
     </row>
     <row r="92">
@@ -5212,13 +5212,13 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>19.99999999999979</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="G92" t="n">
-        <v>27.54975577790617</v>
+        <v>27.54975577790621</v>
       </c>
       <c r="H92" t="n">
-        <v>4.892227932112818</v>
+        <v>4.892227932112695</v>
       </c>
       <c r="I92" t="n">
         <v>9.760627286571122</v>
@@ -5227,16 +5227,16 @@
         <v>22.92041397631485</v>
       </c>
       <c r="K92" t="n">
-        <v>9.760627286571083</v>
+        <v>9.760627286571046</v>
       </c>
       <c r="L92" t="n">
-        <v>22.92041397631386</v>
+        <v>22.92041397631357</v>
       </c>
       <c r="M92" t="n">
-        <v>2.854677874658572e-28</v>
+        <v>9.242692892290772e-28</v>
       </c>
       <c r="N92" t="n">
-        <v>1.209783447966253e-13</v>
+        <v>2.190088522389491e-13</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.0003192000000069584</v>
+        <v>0.0001884000000131891</v>
       </c>
     </row>
     <row r="93">
@@ -5264,13 +5264,13 @@
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>20.00000000000032</v>
+        <v>19.99999999999973</v>
       </c>
       <c r="G93" t="n">
-        <v>36.18064730123582</v>
+        <v>36.18064730123552</v>
       </c>
       <c r="H93" t="n">
-        <v>6.948245597906254</v>
+        <v>6.948245597905931</v>
       </c>
       <c r="I93" t="n">
         <v>14.17967145141647</v>
@@ -5279,16 +5279,16 @@
         <v>24.87142509426831</v>
       </c>
       <c r="K93" t="n">
-        <v>14.17967145141653</v>
+        <v>14.17967145141644</v>
       </c>
       <c r="L93" t="n">
-        <v>24.87142509426882</v>
+        <v>24.87142509426791</v>
       </c>
       <c r="M93" t="n">
-        <v>4.570177691788299e-28</v>
+        <v>6.557679834710965e-28</v>
       </c>
       <c r="N93" t="n">
-        <v>8.637239016239293e-14</v>
+        <v>1.309257311120148e-13</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.0003079999999897609</v>
+        <v>0.0001854999999864049</v>
       </c>
     </row>
     <row r="94">
@@ -5316,13 +5316,13 @@
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>20.00000000000829</v>
+        <v>19.9999999999967</v>
       </c>
       <c r="G94" t="n">
-        <v>159.4584898987681</v>
+        <v>159.4584898987744</v>
       </c>
       <c r="H94" t="n">
-        <v>12.46297880165094</v>
+        <v>12.46297880164221</v>
       </c>
       <c r="I94" t="n">
         <v>62.23454606395273</v>
@@ -5331,16 +5331,16 @@
         <v>7.253282679324334</v>
       </c>
       <c r="K94" t="n">
-        <v>62.23454606395467</v>
+        <v>62.23454606395193</v>
       </c>
       <c r="L94" t="n">
-        <v>7.253282679328346</v>
+        <v>7.253282679322642</v>
       </c>
       <c r="M94" t="n">
-        <v>5.619888697188215e-25</v>
+        <v>9.17102128935396e-26</v>
       </c>
       <c r="N94" t="n">
-        <v>2.769782061722262e-12</v>
+        <v>1.130647853331708e-12</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.000321299999995972</v>
+        <v>0.0001843000000008033</v>
       </c>
     </row>
     <row r="95">
@@ -5368,13 +5368,13 @@
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>20.00000000000584</v>
+        <v>19.99999999999952</v>
       </c>
       <c r="G95" t="n">
-        <v>109.1437807997646</v>
+        <v>109.1437807997649</v>
       </c>
       <c r="H95" t="n">
-        <v>10.89013882341805</v>
+        <v>10.89013882341348</v>
       </c>
       <c r="I95" t="n">
         <v>45.89953068680607</v>
@@ -5383,16 +5383,16 @@
         <v>18.82125777249706</v>
       </c>
       <c r="K95" t="n">
-        <v>45.89953068680691</v>
+        <v>45.89953068680593</v>
       </c>
       <c r="L95" t="n">
-        <v>18.82125777250379</v>
+        <v>18.82125777249686</v>
       </c>
       <c r="M95" t="n">
-        <v>1.451633323279564e-25</v>
+        <v>2.674711979400026e-27</v>
       </c>
       <c r="N95" t="n">
-        <v>1.80211065850339e-12</v>
+        <v>1.39639050834119e-13</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.0003042999999962603</v>
+        <v>0.0001853999999923417</v>
       </c>
     </row>
     <row r="96">
@@ -5420,13 +5420,13 @@
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>19.99999999999328</v>
+        <v>19.99999999999757</v>
       </c>
       <c r="G96" t="n">
-        <v>129.4894415239147</v>
+        <v>129.4894415239134</v>
       </c>
       <c r="H96" t="n">
-        <v>10.28665410745931</v>
+        <v>10.28665410746222</v>
       </c>
       <c r="I96" t="n">
         <v>48.29065171913467</v>
@@ -5435,16 +5435,16 @@
         <v>14.32873211053184</v>
       </c>
       <c r="K96" t="n">
-        <v>48.29065171913341</v>
+        <v>48.29065171913422</v>
       </c>
       <c r="L96" t="n">
-        <v>14.32873211052653</v>
+        <v>14.32873211053022</v>
       </c>
       <c r="M96" t="n">
-        <v>2.446607731933882e-25</v>
+        <v>3.206658310057807e-26</v>
       </c>
       <c r="N96" t="n">
-        <v>2.094513193398149e-12</v>
+        <v>7.249340326475217e-13</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.0002848999999969237</v>
+        <v>0.0002321999999992386</v>
       </c>
     </row>
     <row r="97">
@@ -5472,13 +5472,13 @@
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>20.00000000000033</v>
+        <v>19.99999999999997</v>
       </c>
       <c r="G97" t="n">
-        <v>41.1846277602417</v>
+        <v>41.18462776024194</v>
       </c>
       <c r="H97" t="n">
-        <v>5.288256223490471</v>
+        <v>5.288256223490222</v>
       </c>
       <c r="I97" t="n">
         <v>13.57118462144919</v>
@@ -5487,16 +5487,16 @@
         <v>22.79599817688023</v>
       </c>
       <c r="K97" t="n">
-        <v>13.57118462144925</v>
+        <v>13.57118462144917</v>
       </c>
       <c r="L97" t="n">
-        <v>22.79599817688185</v>
+        <v>22.79599817688122</v>
       </c>
       <c r="M97" t="n">
-        <v>1.063771472160506e-27</v>
+        <v>4.82063527890457e-29</v>
       </c>
       <c r="N97" t="n">
-        <v>2.758685129543276e-13</v>
+        <v>9.149165218383371e-14</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.0002937999999943486</v>
+        <v>0.0001979000000176256</v>
       </c>
     </row>
     <row r="98">
@@ -5524,13 +5524,13 @@
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>20.00000000000028</v>
+        <v>20.00000000000352</v>
       </c>
       <c r="G98" t="n">
-        <v>38.64364002302914</v>
+        <v>38.64364002302953</v>
       </c>
       <c r="H98" t="n">
-        <v>13.91402845610004</v>
+        <v>13.91402845610346</v>
       </c>
       <c r="I98" t="n">
         <v>20.86576132904595</v>
@@ -5539,16 +5539,16 @@
         <v>32.55998288646593</v>
       </c>
       <c r="K98" t="n">
-        <v>20.86576132904598</v>
+        <v>20.86576132904634</v>
       </c>
       <c r="L98" t="n">
-        <v>32.55998288646684</v>
+        <v>32.55998288647375</v>
       </c>
       <c r="M98" t="n">
-        <v>3.420227264921119e-28</v>
+        <v>4.874039299899362e-26</v>
       </c>
       <c r="N98" t="n">
-        <v>7.623009831795322e-14</v>
+        <v>1.146469559597023e-12</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.0003235000000074706</v>
+        <v>0.0001852999999982785</v>
       </c>
     </row>
     <row r="99">
@@ -5576,13 +5576,13 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>20.00000000000204</v>
+        <v>20.00000000000841</v>
       </c>
       <c r="G99" t="n">
-        <v>150.6499423676137</v>
+        <v>150.6499423676118</v>
       </c>
       <c r="H99" t="n">
-        <v>14.64283022328579</v>
+        <v>14.64283022329151</v>
       </c>
       <c r="I99" t="n">
         <v>78.06587627245798</v>
@@ -5591,16 +5591,16 @@
         <v>9.999091878929827</v>
       </c>
       <c r="K99" t="n">
-        <v>78.06587627245823</v>
+        <v>78.06587627245905</v>
       </c>
       <c r="L99" t="n">
-        <v>9.999091878930985</v>
+        <v>9.999091878934902</v>
       </c>
       <c r="M99" t="n">
-        <v>1.62369440342216e-26</v>
+        <v>2.77562311700693e-25</v>
       </c>
       <c r="N99" t="n">
-        <v>5.774958283334931e-13</v>
+        <v>2.465672591148311e-12</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.0002874000000048227</v>
+        <v>0.0001804000000049655</v>
       </c>
     </row>
     <row r="100">
@@ -5628,13 +5628,13 @@
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>19.99999999999711</v>
+        <v>19.99999999999907</v>
       </c>
       <c r="G100" t="n">
-        <v>131.8081046523944</v>
+        <v>131.8081046523933</v>
       </c>
       <c r="H100" t="n">
-        <v>9.806268185408733</v>
+        <v>9.806268185410003</v>
       </c>
       <c r="I100" t="n">
         <v>46.1844939913889</v>
@@ -5643,16 +5643,16 @@
         <v>13.77788699865662</v>
       </c>
       <c r="K100" t="n">
-        <v>46.18449399138828</v>
+        <v>46.18449399138866</v>
       </c>
       <c r="L100" t="n">
-        <v>13.77788699865386</v>
+        <v>13.77788699865556</v>
       </c>
       <c r="M100" t="n">
-        <v>5.038775758005838e-26</v>
+        <v>6.834327744781062e-27</v>
       </c>
       <c r="N100" t="n">
-        <v>9.960719634051581e-13</v>
+        <v>3.434961066469727e-13</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.0002957000000094467</v>
+        <v>0.0001985000000104264</v>
       </c>
     </row>
     <row r="101">
@@ -5680,13 +5680,13 @@
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>20.00000000000447</v>
+        <v>19.99999999999918</v>
       </c>
       <c r="G101" t="n">
-        <v>121.0101405535412</v>
+        <v>121.0101405535421</v>
       </c>
       <c r="H101" t="n">
-        <v>8.856940790889718</v>
+        <v>8.856940790886508</v>
       </c>
       <c r="I101" t="n">
         <v>40.8027694413413</v>
@@ -5695,16 +5695,16 @@
         <v>15.73131543785253</v>
       </c>
       <c r="K101" t="n">
-        <v>40.80276944134219</v>
+        <v>40.80276944134108</v>
       </c>
       <c r="L101" t="n">
-        <v>15.73131543785633</v>
+        <v>15.7313154378515</v>
       </c>
       <c r="M101" t="n">
-        <v>1.126207451572407e-25</v>
+        <v>5.348212067249489e-27</v>
       </c>
       <c r="N101" t="n">
-        <v>1.422800854694184e-12</v>
+        <v>3.161078355536514e-13</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.0003275000000115824</v>
+        <v>0.0002326999999979762</v>
       </c>
     </row>
   </sheetData>
